--- a/robustScaler/robustScaler.xlsx
+++ b/robustScaler/robustScaler.xlsx
@@ -477,13 +477,13 @@
         <v>-0.5274606927364381</v>
       </c>
       <c r="I2">
-        <v>-0.5274606927364383</v>
+        <v>-0.5274606927364384</v>
       </c>
       <c r="J2">
         <v>1.508196721311475</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -512,13 +512,13 @@
         <v>-0.5461468189926072</v>
       </c>
       <c r="I3">
-        <v>-0.5461468189926072</v>
+        <v>-0.5461468189926073</v>
       </c>
       <c r="J3">
         <v>1.508196721311475</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -547,13 +547,13 @@
         <v>0.05315237061167952</v>
       </c>
       <c r="I4">
-        <v>0.05315237061167936</v>
+        <v>0.05315237061167937</v>
       </c>
       <c r="J4">
         <v>1.508196721311475</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -582,13 +582,13 @@
         <v>0.0413700700072832</v>
       </c>
       <c r="I5">
-        <v>0.04137007000728255</v>
+        <v>0.04137007000728256</v>
       </c>
       <c r="J5">
         <v>1.508196721311475</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -617,13 +617,13 @@
         <v>-0.5785754976273486</v>
       </c>
       <c r="I6">
-        <v>-0.5785754976273487</v>
+        <v>-0.5785754976273488</v>
       </c>
       <c r="J6">
         <v>-0.06557377049180328</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -652,13 +652,13 @@
         <v>-0.557210939226521</v>
       </c>
       <c r="I7">
-        <v>-0.5572109392265211</v>
+        <v>-0.5572109392265212</v>
       </c>
       <c r="J7">
         <v>-0.06557377049180328</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -687,13 +687,13 @@
         <v>-0.0660475061111588</v>
       </c>
       <c r="I8">
-        <v>-0.0660475061111591</v>
+        <v>-0.06604750611115912</v>
       </c>
       <c r="J8">
         <v>-0.06557377049180328</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -728,7 +728,7 @@
         <v>-0.06557377049180328</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -757,13 +757,13 @@
         <v>-0.2991722715075301</v>
       </c>
       <c r="I10">
-        <v>-0.2991722715075302</v>
+        <v>-0.2991722715075303</v>
       </c>
       <c r="J10">
         <v>-0.04371584699453552</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -792,13 +792,13 @@
         <v>-0.3437656378247618</v>
       </c>
       <c r="I11">
-        <v>-0.343765637824762</v>
+        <v>-0.3437656378247621</v>
       </c>
       <c r="J11">
         <v>-0.04371584699453552</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -827,13 +827,13 @@
         <v>0.5010885300828051</v>
       </c>
       <c r="I12">
-        <v>0.5010885300828052</v>
+        <v>0.5010885300828053</v>
       </c>
       <c r="J12">
         <v>-0.04371584699453552</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -862,13 +862,13 @@
         <v>0.8448428516945516</v>
       </c>
       <c r="I13">
-        <v>0.8448428516945522</v>
+        <v>0.8448428516945523</v>
       </c>
       <c r="J13">
         <v>-0.04371584699453552</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -897,13 +897,13 @@
         <v>-0.2910128324446445</v>
       </c>
       <c r="I14">
-        <v>-0.2910128324446442</v>
+        <v>-0.2910128324446443</v>
       </c>
       <c r="J14">
         <v>2.950819672131148</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -932,13 +932,13 @@
         <v>0.6463290021472707</v>
       </c>
       <c r="I15">
-        <v>0.646329002147271</v>
+        <v>0.6463290021472711</v>
       </c>
       <c r="J15">
         <v>2.950819672131148</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -967,13 +967,13 @@
         <v>0.8728474345973979</v>
       </c>
       <c r="I16">
-        <v>0.8728474345973984</v>
+        <v>0.8728474345973987</v>
       </c>
       <c r="J16">
         <v>2.950819672131148</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1002,13 +1002,13 @@
         <v>-0.3230248835332018</v>
       </c>
       <c r="I17">
-        <v>-0.3230248835332021</v>
+        <v>-0.3230248835332022</v>
       </c>
       <c r="J17">
         <v>2.950819672131148</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1037,13 +1037,13 @@
         <v>-0.4388930019705062</v>
       </c>
       <c r="I18">
-        <v>-0.4388930019705062</v>
+        <v>-0.4388930019705063</v>
       </c>
       <c r="J18">
         <v>6.885245901639344</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1072,13 +1072,13 @@
         <v>0.1817555220593013</v>
       </c>
       <c r="I19">
-        <v>0.1817555220593007</v>
+        <v>0.1817555220593008</v>
       </c>
       <c r="J19">
         <v>6.885245901639344</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1107,13 +1107,13 @@
         <v>-0.4495824439792551</v>
       </c>
       <c r="I20">
-        <v>-0.4495824439792553</v>
+        <v>-0.4495824439792555</v>
       </c>
       <c r="J20">
         <v>6.885245901639344</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1142,13 +1142,13 @@
         <v>-0.03219096613789738</v>
       </c>
       <c r="I21">
-        <v>-0.03219096613789782</v>
+        <v>-0.03219096613789783</v>
       </c>
       <c r="J21">
         <v>6.885245901639344</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1177,13 +1177,13 @@
         <v>0.5103044559436907</v>
       </c>
       <c r="I22">
-        <v>0.5103044559436907</v>
+        <v>0.5103044559436908</v>
       </c>
       <c r="J22">
         <v>0.08743169398907104</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1212,13 +1212,13 @@
         <v>0.798000234731129</v>
       </c>
       <c r="I23">
-        <v>0.7980002347311287</v>
+        <v>0.7980002347311289</v>
       </c>
       <c r="J23">
         <v>0.08743169398907104</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1253,7 +1253,7 @@
         <v>0.08743169398907104</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1288,7 +1288,7 @@
         <v>0.08743169398907104</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1317,13 +1317,13 @@
         <v>-0.4987640669064521</v>
       </c>
       <c r="I26">
-        <v>-0.4987640669064521</v>
+        <v>-0.4987640669064522</v>
       </c>
       <c r="J26">
         <v>-0.7213114754098361</v>
       </c>
       <c r="K26">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1352,13 +1352,13 @@
         <v>0.839662778121948</v>
       </c>
       <c r="I27">
-        <v>0.8396627781219479</v>
+        <v>0.8396627781219481</v>
       </c>
       <c r="J27">
         <v>-0.7213114754098361</v>
       </c>
       <c r="K27">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1387,13 +1387,13 @@
         <v>-0.465227954758801</v>
       </c>
       <c r="I28">
-        <v>-0.4652279547588011</v>
+        <v>-0.4652279547588012</v>
       </c>
       <c r="J28">
         <v>-0.7213114754098361</v>
       </c>
       <c r="K28">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1422,13 +1422,13 @@
         <v>0.3576127400816517</v>
       </c>
       <c r="I29">
-        <v>0.3576127400816519</v>
+        <v>0.357612740081652</v>
       </c>
       <c r="J29">
         <v>-0.7213114754098361</v>
       </c>
       <c r="K29">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1463,7 +1463,7 @@
         <v>-0.5901639344262295</v>
       </c>
       <c r="K30">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1492,13 +1492,13 @@
         <v>-0.4435254333744824</v>
       </c>
       <c r="I31">
-        <v>-0.4435254333744825</v>
+        <v>-0.4435254333744826</v>
       </c>
       <c r="J31">
         <v>-0.5901639344262295</v>
       </c>
       <c r="K31">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1527,13 +1527,13 @@
         <v>0.3944598641307804</v>
       </c>
       <c r="I32">
-        <v>0.3944598641307793</v>
+        <v>0.3944598641307794</v>
       </c>
       <c r="J32">
         <v>-0.5901639344262295</v>
       </c>
       <c r="K32">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1562,13 +1562,13 @@
         <v>-0.3568488952889221</v>
       </c>
       <c r="I33">
-        <v>-0.3568488952889225</v>
+        <v>-0.3568488952889226</v>
       </c>
       <c r="J33">
         <v>-0.5901639344262295</v>
       </c>
       <c r="K33">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1597,13 +1597,13 @@
         <v>-0.5771299016529589</v>
       </c>
       <c r="I34">
-        <v>-0.577129901652959</v>
+        <v>-0.5771299016529591</v>
       </c>
       <c r="J34">
         <v>-0.4480874316939891</v>
       </c>
       <c r="K34">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1632,13 +1632,13 @@
         <v>-0.5249944901403233</v>
       </c>
       <c r="I35">
-        <v>-0.5249944901403234</v>
+        <v>-0.5249944901403235</v>
       </c>
       <c r="J35">
         <v>-0.4480874316939891</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1667,13 +1667,13 @@
         <v>-0.04394886449140421</v>
       </c>
       <c r="I36">
-        <v>-0.0439488644914045</v>
+        <v>-0.04394886449140451</v>
       </c>
       <c r="J36">
         <v>-0.4480874316939891</v>
       </c>
       <c r="K36">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1702,13 +1702,13 @@
         <v>0.04469782779719907</v>
       </c>
       <c r="I37">
-        <v>0.0446978277971989</v>
+        <v>0.04469782779719891</v>
       </c>
       <c r="J37">
         <v>-0.4480874316939891</v>
       </c>
       <c r="K37">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1737,13 +1737,13 @@
         <v>-0.6071839148167846</v>
       </c>
       <c r="I38">
-        <v>-0.6071839148167847</v>
+        <v>-0.6071839148167848</v>
       </c>
       <c r="J38">
         <v>-0.459016393442623</v>
       </c>
       <c r="K38">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1778,7 +1778,7 @@
         <v>-0.459016393442623</v>
       </c>
       <c r="K39">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1807,13 +1807,13 @@
         <v>-0.5903104597156554</v>
       </c>
       <c r="I40">
-        <v>-0.5903104597156555</v>
+        <v>-0.5903104597156557</v>
       </c>
       <c r="J40">
         <v>-0.459016393442623</v>
       </c>
       <c r="K40">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1848,7 +1848,7 @@
         <v>-0.459016393442623</v>
       </c>
       <c r="K41">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1883,7 +1883,7 @@
         <v>-0.5901639344262295</v>
       </c>
       <c r="K42">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1912,13 +1912,13 @@
         <v>1.068452413636339</v>
       </c>
       <c r="I43">
-        <v>1.068452413636339</v>
+        <v>1.06845241363634</v>
       </c>
       <c r="J43">
         <v>-0.5901639344262295</v>
       </c>
       <c r="K43">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1947,13 +1947,13 @@
         <v>-0.3022542644799731</v>
       </c>
       <c r="I44">
-        <v>-0.3022542644799731</v>
+        <v>-0.3022542644799732</v>
       </c>
       <c r="J44">
         <v>-0.5901639344262295</v>
       </c>
       <c r="K44">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1982,13 +1982,13 @@
         <v>0.4416185353280671</v>
       </c>
       <c r="I45">
-        <v>0.4416185353280673</v>
+        <v>0.4416185353280674</v>
       </c>
       <c r="J45">
         <v>-0.5901639344262295</v>
       </c>
       <c r="K45">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2017,13 +2017,13 @@
         <v>0.7677988044751459</v>
       </c>
       <c r="I46">
-        <v>0.7677988044751455</v>
+        <v>0.7677988044751456</v>
       </c>
       <c r="J46">
         <v>-0.3278688524590164</v>
       </c>
       <c r="K46">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2052,13 +2052,13 @@
         <v>-0.3805242863837873</v>
       </c>
       <c r="I47">
-        <v>-0.3805242863837874</v>
+        <v>-0.3805242863837875</v>
       </c>
       <c r="J47">
         <v>-0.3278688524590164</v>
       </c>
       <c r="K47">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2087,13 +2087,13 @@
         <v>-0.4891275664574735</v>
       </c>
       <c r="I48">
-        <v>-0.4891275664574736</v>
+        <v>-0.4891275664574737</v>
       </c>
       <c r="J48">
         <v>-0.3278688524590164</v>
       </c>
       <c r="K48">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2128,7 +2128,7 @@
         <v>-0.3278688524590164</v>
       </c>
       <c r="K49">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2157,13 +2157,13 @@
         <v>0.09172173260205184</v>
       </c>
       <c r="I50">
-        <v>0.09172173260205094</v>
+        <v>0.09172173260205095</v>
       </c>
       <c r="J50">
         <v>2.950819672131148</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2198,7 +2198,7 @@
         <v>2.950819672131148</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2233,7 +2233,7 @@
         <v>2.950819672131148</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2262,13 +2262,13 @@
         <v>0.2729705893193639</v>
       </c>
       <c r="I53">
-        <v>0.2729705893193638</v>
+        <v>0.2729705893193639</v>
       </c>
       <c r="J53">
         <v>2.950819672131148</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2303,7 +2303,7 @@
         <v>-0.06557377049180328</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2338,7 +2338,7 @@
         <v>-0.06557377049180328</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2373,7 +2373,7 @@
         <v>-0.06557377049180328</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2408,7 +2408,7 @@
         <v>-0.06557377049180328</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2443,7 +2443,7 @@
         <v>-0.459016393442623</v>
       </c>
       <c r="K58">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2478,7 +2478,7 @@
         <v>-0.459016393442623</v>
       </c>
       <c r="K59">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2513,7 +2513,7 @@
         <v>-0.459016393442623</v>
       </c>
       <c r="K60">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2542,13 +2542,13 @@
         <v>0.6020863607114705</v>
       </c>
       <c r="I61">
-        <v>0.6020863607114704</v>
+        <v>0.6020863607114705</v>
       </c>
       <c r="J61">
         <v>-0.459016393442623</v>
       </c>
       <c r="K61">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2577,13 +2577,13 @@
         <v>0.3666594718951471</v>
       </c>
       <c r="I62">
-        <v>0.3666594718951466</v>
+        <v>0.3666594718951467</v>
       </c>
       <c r="J62">
         <v>-0.6010928961748634</v>
       </c>
       <c r="K62">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2612,13 +2612,13 @@
         <v>0.5061124054387545</v>
       </c>
       <c r="I63">
-        <v>0.5061124054387544</v>
+        <v>0.5061124054387545</v>
       </c>
       <c r="J63">
         <v>-0.6010928961748634</v>
       </c>
       <c r="K63">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2647,13 +2647,13 @@
         <v>-0.2362728333325725</v>
       </c>
       <c r="I64">
-        <v>-0.2362728333325727</v>
+        <v>-0.2362728333325728</v>
       </c>
       <c r="J64">
         <v>-0.6010928961748634</v>
       </c>
       <c r="K64">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2688,7 +2688,7 @@
         <v>-0.6010928961748634</v>
       </c>
       <c r="K65">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2717,13 +2717,13 @@
         <v>0.4948199749490014</v>
       </c>
       <c r="I66">
-        <v>0.4948199749490013</v>
+        <v>0.4948199749490014</v>
       </c>
       <c r="J66">
         <v>0.7868852459016393</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2752,13 +2752,13 @@
         <v>-0.4182243634635608</v>
       </c>
       <c r="I67">
-        <v>-0.418224363463561</v>
+        <v>-0.4182243634635611</v>
       </c>
       <c r="J67">
         <v>0.7868852459016393</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2787,13 +2787,13 @@
         <v>0.09802561417688341</v>
       </c>
       <c r="I68">
-        <v>0.09802561417688292</v>
+        <v>0.09802561417688295</v>
       </c>
       <c r="J68">
         <v>0.7868852459016393</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2822,13 +2822,13 @@
         <v>-0.5105909043374178</v>
       </c>
       <c r="I69">
-        <v>-0.5105909043374179</v>
+        <v>-0.5105909043374181</v>
       </c>
       <c r="J69">
         <v>0.7868852459016393</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2857,13 +2857,13 @@
         <v>0.5300353831562217</v>
       </c>
       <c r="I70">
-        <v>0.5300353831562218</v>
+        <v>0.5300353831562219</v>
       </c>
       <c r="J70">
         <v>0.1202185792349727</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2892,13 +2892,13 @@
         <v>0.09605980520751672</v>
       </c>
       <c r="I71">
-        <v>0.09605980520751629</v>
+        <v>0.09605980520751632</v>
       </c>
       <c r="J71">
         <v>0.1202185792349727</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2927,13 +2927,13 @@
         <v>-0.4717012756318703</v>
       </c>
       <c r="I72">
-        <v>-0.4717012756318705</v>
+        <v>-0.4717012756318706</v>
       </c>
       <c r="J72">
         <v>0.1202185792349727</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2962,13 +2962,13 @@
         <v>-0.3763039143326787</v>
       </c>
       <c r="I73">
-        <v>-0.3763039143326787</v>
+        <v>-0.3763039143326788</v>
       </c>
       <c r="J73">
         <v>0.1202185792349727</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2997,13 +2997,13 @@
         <v>-0.5526086411309503</v>
       </c>
       <c r="I74">
-        <v>-0.5526086411309504</v>
+        <v>-0.5526086411309505</v>
       </c>
       <c r="J74">
         <v>-0.5136612021857924</v>
       </c>
       <c r="K74">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3038,7 +3038,7 @@
         <v>-0.5136612021857924</v>
       </c>
       <c r="K75">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3067,13 +3067,13 @@
         <v>-0.5816400525076402</v>
       </c>
       <c r="I76">
-        <v>-0.5816400525076403</v>
+        <v>-0.5816400525076404</v>
       </c>
       <c r="J76">
         <v>-0.5136612021857924</v>
       </c>
       <c r="K76">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3108,7 +3108,7 @@
         <v>-0.5136612021857924</v>
       </c>
       <c r="K77">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3137,13 +3137,13 @@
         <v>-0.4101134620223351</v>
       </c>
       <c r="I78">
-        <v>-0.4101134620223352</v>
+        <v>-0.4101134620223353</v>
       </c>
       <c r="J78">
         <v>0.2185792349726776</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3172,13 +3172,13 @@
         <v>0.8309910332126165</v>
       </c>
       <c r="I79">
-        <v>0.8309910332126166</v>
+        <v>0.8309910332126168</v>
       </c>
       <c r="J79">
         <v>0.2185792349726776</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3207,13 +3207,13 @@
         <v>0.3462791948500254</v>
       </c>
       <c r="I80">
-        <v>0.3462791948500257</v>
+        <v>0.3462791948500258</v>
       </c>
       <c r="J80">
         <v>0.2185792349726776</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3242,13 +3242,13 @@
         <v>-0.2302414470591041</v>
       </c>
       <c r="I81">
-        <v>-0.230241447059104</v>
+        <v>-0.2302414470591041</v>
       </c>
       <c r="J81">
         <v>0.2185792349726776</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3283,7 +3283,7 @@
         <v>-0.01092896174863388</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3312,13 +3312,13 @@
         <v>-0.5002151087957282</v>
       </c>
       <c r="I83">
-        <v>-0.5002151087957282</v>
+        <v>-0.5002151087957283</v>
       </c>
       <c r="J83">
         <v>-0.01092896174863388</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3347,13 +3347,13 @@
         <v>-0.03641669848031746</v>
       </c>
       <c r="I84">
-        <v>-0.03641669848031776</v>
+        <v>-0.03641669848031777</v>
       </c>
       <c r="J84">
         <v>-0.01092896174863388</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3382,13 +3382,13 @@
         <v>-0.4919563097391261</v>
       </c>
       <c r="I85">
-        <v>-0.4919563097391263</v>
+        <v>-0.4919563097391264</v>
       </c>
       <c r="J85">
         <v>-0.01092896174863388</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3417,13 +3417,13 @@
         <v>0.4620707991412596</v>
       </c>
       <c r="I86">
-        <v>0.4620707991412596</v>
+        <v>0.4620707991412598</v>
       </c>
       <c r="J86">
         <v>-0.7213114754098361</v>
       </c>
       <c r="K86">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3452,13 +3452,13 @@
         <v>-0.2499045866006559</v>
       </c>
       <c r="I87">
-        <v>-0.2499045866006561</v>
+        <v>-0.2499045866006562</v>
       </c>
       <c r="J87">
         <v>-0.7213114754098361</v>
       </c>
       <c r="K87">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3487,13 +3487,13 @@
         <v>0.9171761269073871</v>
       </c>
       <c r="I88">
-        <v>0.9171761269073875</v>
+        <v>0.9171761269073877</v>
       </c>
       <c r="J88">
         <v>-0.7213114754098361</v>
       </c>
       <c r="K88">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3528,7 +3528,7 @@
         <v>-0.7213114754098361</v>
       </c>
       <c r="K89">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3557,13 +3557,13 @@
         <v>0.07516892761575897</v>
       </c>
       <c r="I90">
-        <v>0.07516892761575904</v>
+        <v>0.07516892761575905</v>
       </c>
       <c r="J90">
         <v>-0.5027322404371585</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3592,13 +3592,13 @@
         <v>-0.5019309113038426</v>
       </c>
       <c r="I91">
-        <v>-0.5019309113038428</v>
+        <v>-0.5019309113038429</v>
       </c>
       <c r="J91">
         <v>-0.5027322404371585</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3627,13 +3627,13 @@
         <v>-0.5308614784169723</v>
       </c>
       <c r="I92">
-        <v>-0.5308614784169723</v>
+        <v>-0.5308614784169724</v>
       </c>
       <c r="J92">
         <v>-0.5027322404371585</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3668,7 +3668,7 @@
         <v>-0.5027322404371585</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3703,7 +3703,7 @@
         <v>-0.06557377049180328</v>
       </c>
       <c r="K94">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3732,13 +3732,13 @@
         <v>-0.3106326209989877</v>
       </c>
       <c r="I95">
-        <v>-0.310632620998988</v>
+        <v>-0.3106326209989881</v>
       </c>
       <c r="J95">
         <v>-0.06557377049180328</v>
       </c>
       <c r="K95">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3773,7 +3773,7 @@
         <v>-0.06557377049180328</v>
       </c>
       <c r="K96">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3802,13 +3802,13 @@
         <v>0.5132686454334966</v>
       </c>
       <c r="I97">
-        <v>0.5132686454334955</v>
+        <v>0.5132686454334956</v>
       </c>
       <c r="J97">
         <v>-0.06557377049180328</v>
       </c>
       <c r="K97">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3837,13 +3837,13 @@
         <v>0.5884155484818711</v>
       </c>
       <c r="I98">
-        <v>0.5884155484818708</v>
+        <v>0.5884155484818709</v>
       </c>
       <c r="J98">
         <v>2.032786885245902</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3872,13 +3872,13 @@
         <v>-0.2926768319772676</v>
       </c>
       <c r="I99">
-        <v>-0.2926768319772675</v>
+        <v>-0.2926768319772676</v>
       </c>
       <c r="J99">
         <v>2.032786885245902</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3907,13 +3907,13 @@
         <v>0.7468806095454916</v>
       </c>
       <c r="I100">
-        <v>0.7468806095454916</v>
+        <v>0.7468806095454917</v>
       </c>
       <c r="J100">
         <v>2.032786885245902</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3948,7 +3948,7 @@
         <v>2.032786885245902</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3983,7 +3983,7 @@
         <v>-0.03278688524590164</v>
       </c>
       <c r="K102">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4012,13 +4012,13 @@
         <v>-0.5552903251851377</v>
       </c>
       <c r="I103">
-        <v>-0.5552903251851378</v>
+        <v>-0.5552903251851379</v>
       </c>
       <c r="J103">
         <v>-0.03278688524590164</v>
       </c>
       <c r="K103">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4053,7 +4053,7 @@
         <v>-0.03278688524590164</v>
       </c>
       <c r="K104">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4082,13 +4082,13 @@
         <v>-0.5831460904465614</v>
       </c>
       <c r="I105">
-        <v>-0.5831460904465616</v>
+        <v>-0.5831460904465617</v>
       </c>
       <c r="J105">
         <v>-0.03278688524590164</v>
       </c>
       <c r="K105">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4117,13 +4117,13 @@
         <v>-0.5454357033002998</v>
       </c>
       <c r="I106">
-        <v>-0.5454357033003</v>
+        <v>-0.5454357033003001</v>
       </c>
       <c r="J106">
         <v>-0.459016393442623</v>
       </c>
       <c r="K106">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4152,13 +4152,13 @@
         <v>0.08523714916181159</v>
       </c>
       <c r="I107">
-        <v>0.08523714916181181</v>
+        <v>0.08523714916181183</v>
       </c>
       <c r="J107">
         <v>-0.459016393442623</v>
       </c>
       <c r="K107">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4187,13 +4187,13 @@
         <v>-0.5299194136296463</v>
       </c>
       <c r="I108">
-        <v>-0.5299194136296466</v>
+        <v>-0.5299194136296467</v>
       </c>
       <c r="J108">
         <v>-0.459016393442623</v>
       </c>
       <c r="K108">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4222,13 +4222,13 @@
         <v>0.3761120381859822</v>
       </c>
       <c r="I109">
-        <v>0.376112038185982</v>
+        <v>0.3761120381859821</v>
       </c>
       <c r="J109">
         <v>-0.459016393442623</v>
       </c>
       <c r="K109">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4263,7 +4263,7 @@
         <v>-0.4371584699453552</v>
       </c>
       <c r="K110">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4292,13 +4292,13 @@
         <v>-0.07733920622090627</v>
       </c>
       <c r="I111">
-        <v>-0.0773392062209067</v>
+        <v>-0.07733920622090672</v>
       </c>
       <c r="J111">
         <v>-0.4371584699453552</v>
       </c>
       <c r="K111">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4327,13 +4327,13 @@
         <v>0.5103643212846745</v>
       </c>
       <c r="I112">
-        <v>0.510364321284675</v>
+        <v>0.5103643212846751</v>
       </c>
       <c r="J112">
         <v>-0.4371584699453552</v>
       </c>
       <c r="K112">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4368,7 +4368,7 @@
         <v>-0.4371584699453552</v>
       </c>
       <c r="K113">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4397,13 +4397,13 @@
         <v>0.09083398965100208</v>
       </c>
       <c r="I114">
-        <v>0.09083398965100202</v>
+        <v>0.09083398965100203</v>
       </c>
       <c r="J114">
         <v>-0.5245901639344263</v>
       </c>
       <c r="K114">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4432,13 +4432,13 @@
         <v>-0.5095828879278317</v>
       </c>
       <c r="I115">
-        <v>-0.5095828879278317</v>
+        <v>-0.5095828879278318</v>
       </c>
       <c r="J115">
         <v>-0.5245901639344263</v>
       </c>
       <c r="K115">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4467,13 +4467,13 @@
         <v>0.4805687750238146</v>
       </c>
       <c r="I116">
-        <v>0.4805687750238144</v>
+        <v>0.4805687750238145</v>
       </c>
       <c r="J116">
         <v>-0.5245901639344263</v>
       </c>
       <c r="K116">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4502,13 +4502,13 @@
         <v>-0.5170550201609627</v>
       </c>
       <c r="I117">
-        <v>-0.5170550201609628</v>
+        <v>-0.5170550201609629</v>
       </c>
       <c r="J117">
         <v>-0.5245901639344263</v>
       </c>
       <c r="K117">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4537,13 +4537,13 @@
         <v>0.5312050884633355</v>
       </c>
       <c r="I118">
-        <v>0.5312050884633364</v>
+        <v>0.5312050884633365</v>
       </c>
       <c r="J118">
         <v>-0.2185792349726776</v>
       </c>
       <c r="K118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4578,7 +4578,7 @@
         <v>-0.2185792349726776</v>
       </c>
       <c r="K119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4613,7 +4613,7 @@
         <v>-0.2185792349726776</v>
       </c>
       <c r="K120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4648,7 +4648,7 @@
         <v>-0.2185792349726776</v>
       </c>
       <c r="K121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4677,13 +4677,13 @@
         <v>-0.07533853945882482</v>
       </c>
       <c r="I122">
-        <v>-0.07533853945882509</v>
+        <v>-0.0753385394588251</v>
       </c>
       <c r="J122">
         <v>-0.3278688524590164</v>
       </c>
       <c r="K122">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4718,7 +4718,7 @@
         <v>-0.3278688524590164</v>
       </c>
       <c r="K123">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4747,13 +4747,13 @@
         <v>-0.5675258336349988</v>
       </c>
       <c r="I124">
-        <v>-0.5675258336349989</v>
+        <v>-0.567525833634999</v>
       </c>
       <c r="J124">
         <v>-0.3278688524590164</v>
       </c>
       <c r="K124">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4782,13 +4782,13 @@
         <v>-0.592125029431524</v>
       </c>
       <c r="I125">
-        <v>-0.5921250294315242</v>
+        <v>-0.5921250294315243</v>
       </c>
       <c r="J125">
         <v>-0.3278688524590164</v>
       </c>
       <c r="K125">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4823,7 +4823,7 @@
         <v>-0.5027322404371585</v>
       </c>
       <c r="K126">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4852,13 +4852,13 @@
         <v>0.07614509616164021</v>
       </c>
       <c r="I127">
-        <v>0.07614509616163991</v>
+        <v>0.07614509616163993</v>
       </c>
       <c r="J127">
         <v>-0.5027322404371585</v>
       </c>
       <c r="K127">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4887,13 +4887,13 @@
         <v>0.7842940738099423</v>
       </c>
       <c r="I128">
-        <v>0.7842940738099425</v>
+        <v>0.7842940738099428</v>
       </c>
       <c r="J128">
         <v>-0.5027322404371585</v>
       </c>
       <c r="K128">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4922,13 +4922,13 @@
         <v>-0.06296919935544963</v>
       </c>
       <c r="I129">
-        <v>-0.06296919935544963</v>
+        <v>-0.06296919935544965</v>
       </c>
       <c r="J129">
         <v>-0.5027322404371585</v>
       </c>
       <c r="K129">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4957,13 +4957,13 @@
         <v>0.6920481230129194</v>
       </c>
       <c r="I130">
-        <v>0.6920481230129197</v>
+        <v>0.69204812301292</v>
       </c>
       <c r="J130">
         <v>0.1311475409836066</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4992,13 +4992,13 @@
         <v>-0.452695493421556</v>
       </c>
       <c r="I131">
-        <v>-0.4526954934215562</v>
+        <v>-0.4526954934215563</v>
       </c>
       <c r="J131">
         <v>0.1311475409836066</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5027,13 +5027,13 @@
         <v>-0.5317267966626396</v>
       </c>
       <c r="I132">
-        <v>-0.5317267966626397</v>
+        <v>-0.5317267966626398</v>
       </c>
       <c r="J132">
         <v>0.1311475409836066</v>
       </c>
       <c r="K132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5068,7 +5068,7 @@
         <v>0.1311475409836066</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5097,13 +5097,13 @@
         <v>-0.4160181581826886</v>
       </c>
       <c r="I134">
-        <v>-0.4160181581826886</v>
+        <v>-0.4160181581826887</v>
       </c>
       <c r="J134">
         <v>0</v>
       </c>
       <c r="K134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5132,13 +5132,13 @@
         <v>0.410777469968815</v>
       </c>
       <c r="I135">
-        <v>0.4107774699688146</v>
+        <v>0.4107774699688147</v>
       </c>
       <c r="J135">
         <v>0</v>
       </c>
       <c r="K135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5167,13 +5167,13 @@
         <v>-0.3991088612134727</v>
       </c>
       <c r="I136">
-        <v>-0.3991088612134728</v>
+        <v>-0.3991088612134729</v>
       </c>
       <c r="J136">
         <v>0</v>
       </c>
       <c r="K136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5202,13 +5202,13 @@
         <v>0.05521158551333469</v>
       </c>
       <c r="I137">
-        <v>0.05521158551333497</v>
+        <v>0.05521158551333499</v>
       </c>
       <c r="J137">
         <v>0</v>
       </c>
       <c r="K137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5237,13 +5237,13 @@
         <v>-0.04217257721561692</v>
       </c>
       <c r="I138">
-        <v>-0.04217257721561684</v>
+        <v>-0.04217257721561685</v>
       </c>
       <c r="J138">
         <v>0</v>
       </c>
       <c r="K138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5272,13 +5272,13 @@
         <v>0.6473973874816112</v>
       </c>
       <c r="I139">
-        <v>0.6473973874816112</v>
+        <v>0.6473973874816115</v>
       </c>
       <c r="J139">
         <v>0</v>
       </c>
       <c r="K139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="K140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5342,13 +5342,13 @@
         <v>0.938604165730188</v>
       </c>
       <c r="I141">
-        <v>0.9386041657301881</v>
+        <v>0.9386041657301883</v>
       </c>
       <c r="J141">
         <v>0</v>
       </c>
       <c r="K141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5377,13 +5377,13 @@
         <v>0.8344913325187696</v>
       </c>
       <c r="I142">
-        <v>0.8344913325187703</v>
+        <v>0.8344913325187705</v>
       </c>
       <c r="J142">
         <v>0.1311475409836066</v>
       </c>
       <c r="K142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5412,13 +5412,13 @@
         <v>-0.2833210756882708</v>
       </c>
       <c r="I143">
-        <v>-0.2833210756882709</v>
+        <v>-0.283321075688271</v>
       </c>
       <c r="J143">
         <v>0.1311475409836066</v>
       </c>
       <c r="K143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5447,13 +5447,13 @@
         <v>-0.321688877091409</v>
       </c>
       <c r="I144">
-        <v>-0.3216888770914091</v>
+        <v>-0.3216888770914092</v>
       </c>
       <c r="J144">
         <v>0.1311475409836066</v>
       </c>
       <c r="K144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5482,13 +5482,13 @@
         <v>0.3262854028568735</v>
       </c>
       <c r="I145">
-        <v>0.3262854028568733</v>
+        <v>0.3262854028568734</v>
       </c>
       <c r="J145">
         <v>0.1311475409836066</v>
       </c>
       <c r="K145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5517,13 +5517,13 @@
         <v>-0.5235125429275845</v>
       </c>
       <c r="I146">
-        <v>-0.5235125429275846</v>
+        <v>-0.5235125429275848</v>
       </c>
       <c r="J146">
         <v>0.5901639344262295</v>
       </c>
       <c r="K146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5552,13 +5552,13 @@
         <v>0.07462363300496666</v>
       </c>
       <c r="I147">
-        <v>0.07462363300496679</v>
+        <v>0.07462363300496681</v>
       </c>
       <c r="J147">
         <v>0.5901639344262295</v>
       </c>
       <c r="K147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5587,13 +5587,13 @@
         <v>-0.5079977881419835</v>
       </c>
       <c r="I148">
-        <v>-0.5079977881419836</v>
+        <v>-0.5079977881419837</v>
       </c>
       <c r="J148">
         <v>0.5901639344262295</v>
       </c>
       <c r="K148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5622,13 +5622,13 @@
         <v>0.2626020417939097</v>
       </c>
       <c r="I149">
-        <v>0.2626020417939096</v>
+        <v>0.2626020417939097</v>
       </c>
       <c r="J149">
         <v>0.5901639344262295</v>
       </c>
       <c r="K149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5663,7 +5663,7 @@
         <v>0.1967213114754098</v>
       </c>
       <c r="K150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5692,13 +5692,13 @@
         <v>0.3495207538862255</v>
       </c>
       <c r="I151">
-        <v>0.3495207538862253</v>
+        <v>0.3495207538862254</v>
       </c>
       <c r="J151">
         <v>0.1967213114754098</v>
       </c>
       <c r="K151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5733,7 +5733,7 @@
         <v>0.1967213114754098</v>
       </c>
       <c r="K152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5762,13 +5762,13 @@
         <v>0.5756874828737275</v>
       </c>
       <c r="I153">
-        <v>0.5756874828737277</v>
+        <v>0.5756874828737278</v>
       </c>
       <c r="J153">
         <v>0.1967213114754098</v>
       </c>
       <c r="K153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5803,7 +5803,7 @@
         <v>-0.3169398907103825</v>
       </c>
       <c r="K154">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5832,13 +5832,13 @@
         <v>-0.3969480469799054</v>
       </c>
       <c r="I155">
-        <v>-0.3969480469799057</v>
+        <v>-0.3969480469799058</v>
       </c>
       <c r="J155">
         <v>-0.3169398907103825</v>
       </c>
       <c r="K155">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5867,13 +5867,13 @@
         <v>-0.4373145640325505</v>
       </c>
       <c r="I156">
-        <v>-0.4373145640325505</v>
+        <v>-0.4373145640325506</v>
       </c>
       <c r="J156">
         <v>-0.3169398907103825</v>
       </c>
       <c r="K156">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5902,13 +5902,13 @@
         <v>0.7382760294718616</v>
       </c>
       <c r="I157">
-        <v>0.7382760294718611</v>
+        <v>0.7382760294718613</v>
       </c>
       <c r="J157">
         <v>-0.3169398907103825</v>
       </c>
       <c r="K157">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5943,7 +5943,7 @@
         <v>0.459016393442623</v>
       </c>
       <c r="K158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5972,13 +5972,13 @@
         <v>-0.3342131045817558</v>
       </c>
       <c r="I159">
-        <v>-0.3342131045817557</v>
+        <v>-0.3342131045817558</v>
       </c>
       <c r="J159">
         <v>0.459016393442623</v>
       </c>
       <c r="K159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6013,7 +6013,7 @@
         <v>0.459016393442623</v>
       </c>
       <c r="K160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -6042,13 +6042,13 @@
         <v>0.6927606401611978</v>
       </c>
       <c r="I161">
-        <v>0.692760640161197</v>
+        <v>0.6927606401611972</v>
       </c>
       <c r="J161">
         <v>0.459016393442623</v>
       </c>
       <c r="K161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6077,13 +6077,13 @@
         <v>-0.4038556272090098</v>
       </c>
       <c r="I162">
-        <v>-0.4038556272090099</v>
+        <v>-0.40385562720901</v>
       </c>
       <c r="J162">
         <v>1.639344262295082</v>
       </c>
       <c r="K162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6118,7 +6118,7 @@
         <v>1.639344262295082</v>
       </c>
       <c r="K163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6147,13 +6147,13 @@
         <v>0.6293434976309915</v>
       </c>
       <c r="I164">
-        <v>0.6293434976309912</v>
+        <v>0.6293434976309913</v>
       </c>
       <c r="J164">
         <v>1.639344262295082</v>
       </c>
       <c r="K164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6182,13 +6182,13 @@
         <v>0.8929307799249884</v>
       </c>
       <c r="I165">
-        <v>0.8929307799249886</v>
+        <v>0.8929307799249887</v>
       </c>
       <c r="J165">
         <v>1.639344262295082</v>
       </c>
       <c r="K165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6217,13 +6217,13 @@
         <v>0.7041658773569002</v>
       </c>
       <c r="I166">
-        <v>0.7041658773569009</v>
+        <v>0.7041658773569011</v>
       </c>
       <c r="J166">
         <v>-0.6557377049180327</v>
       </c>
       <c r="K166">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6252,13 +6252,13 @@
         <v>0.4342625494125614</v>
       </c>
       <c r="I167">
-        <v>0.4342625494125611</v>
+        <v>0.4342625494125613</v>
       </c>
       <c r="J167">
         <v>-0.6557377049180327</v>
       </c>
       <c r="K167">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6293,7 +6293,7 @@
         <v>-0.6557377049180327</v>
       </c>
       <c r="K168">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6322,13 +6322,13 @@
         <v>-0.5570665566082297</v>
       </c>
       <c r="I169">
-        <v>-0.5570665566082298</v>
+        <v>-0.5570665566082299</v>
       </c>
       <c r="J169">
         <v>-0.6557377049180327</v>
       </c>
       <c r="K169">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6357,13 +6357,13 @@
         <v>0.27627865971546</v>
       </c>
       <c r="I170">
-        <v>0.2762786597154599</v>
+        <v>0.27627865971546</v>
       </c>
       <c r="J170">
         <v>0.1530054644808743</v>
       </c>
       <c r="K170">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6398,7 +6398,7 @@
         <v>0.1530054644808743</v>
       </c>
       <c r="K171">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6427,13 +6427,13 @@
         <v>-0.4023654228936016</v>
       </c>
       <c r="I172">
-        <v>-0.4023654228936017</v>
+        <v>-0.4023654228936018</v>
       </c>
       <c r="J172">
         <v>0.1530054644808743</v>
       </c>
       <c r="K172">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6462,13 +6462,13 @@
         <v>0.3509447173975805</v>
       </c>
       <c r="I173">
-        <v>0.350944717397581</v>
+        <v>0.3509447173975811</v>
       </c>
       <c r="J173">
         <v>0.1530054644808743</v>
       </c>
       <c r="K173">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6497,13 +6497,13 @@
         <v>0.6027870388159302</v>
       </c>
       <c r="I174">
-        <v>0.6027870388159303</v>
+        <v>0.6027870388159304</v>
       </c>
       <c r="J174">
         <v>-0.2404371584699453</v>
       </c>
       <c r="K174">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6532,13 +6532,13 @@
         <v>0.8225218063149048</v>
       </c>
       <c r="I175">
-        <v>0.8225218063149049</v>
+        <v>0.822521806314905</v>
       </c>
       <c r="J175">
         <v>-0.2404371584699453</v>
       </c>
       <c r="K175">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6573,7 +6573,7 @@
         <v>-0.2404371584699453</v>
       </c>
       <c r="K176">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6602,13 +6602,13 @@
         <v>-0.466777461492956</v>
       </c>
       <c r="I177">
-        <v>-0.4667774614929561</v>
+        <v>-0.4667774614929562</v>
       </c>
       <c r="J177">
         <v>-0.2404371584699453</v>
       </c>
       <c r="K177">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6637,13 +6637,13 @@
         <v>0.8962727632799955</v>
       </c>
       <c r="I178">
-        <v>0.8962727632799957</v>
+        <v>0.8962727632799958</v>
       </c>
       <c r="J178">
         <v>0.8087431693989071</v>
       </c>
       <c r="K178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6672,13 +6672,13 @@
         <v>-0.2496092869910378</v>
       </c>
       <c r="I179">
-        <v>-0.2496092869910381</v>
+        <v>-0.2496092869910382</v>
       </c>
       <c r="J179">
         <v>0.8087431693989071</v>
       </c>
       <c r="K179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6713,7 +6713,7 @@
         <v>0.8087431693989071</v>
       </c>
       <c r="K180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6742,13 +6742,13 @@
         <v>-0.3281985402769476</v>
       </c>
       <c r="I181">
-        <v>-0.3281985402769476</v>
+        <v>-0.3281985402769477</v>
       </c>
       <c r="J181">
         <v>0.8087431693989071</v>
       </c>
       <c r="K181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6783,7 +6783,7 @@
         <v>1.245901639344262</v>
       </c>
       <c r="K182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6812,13 +6812,13 @@
         <v>0.9594533003866222</v>
       </c>
       <c r="I183">
-        <v>0.9594533003866225</v>
+        <v>0.9594533003866227</v>
       </c>
       <c r="J183">
         <v>1.245901639344262</v>
       </c>
       <c r="K183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6847,13 +6847,13 @@
         <v>0.8207410473249512</v>
       </c>
       <c r="I184">
-        <v>0.8207410473249511</v>
+        <v>0.8207410473249512</v>
       </c>
       <c r="J184">
         <v>1.245901639344262</v>
       </c>
       <c r="K184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6882,13 +6882,13 @@
         <v>-0.265142879769479</v>
       </c>
       <c r="I185">
-        <v>-0.265142879769479</v>
+        <v>-0.2651428797694791</v>
       </c>
       <c r="J185">
         <v>1.245901639344262</v>
       </c>
       <c r="K185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6917,13 +6917,13 @@
         <v>0.3067962114454345</v>
       </c>
       <c r="I186">
-        <v>0.3067962114454346</v>
+        <v>0.3067962114454347</v>
       </c>
       <c r="J186">
         <v>-0.1311475409836066</v>
       </c>
       <c r="K186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6952,13 +6952,13 @@
         <v>-0.4339708824268913</v>
       </c>
       <c r="I187">
-        <v>-0.4339708824268915</v>
+        <v>-0.4339708824268916</v>
       </c>
       <c r="J187">
         <v>-0.1311475409836066</v>
       </c>
       <c r="K187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6987,13 +6987,13 @@
         <v>0.1596919302847873</v>
       </c>
       <c r="I188">
-        <v>0.1596919302847871</v>
+        <v>0.1596919302847872</v>
       </c>
       <c r="J188">
         <v>-0.1311475409836066</v>
       </c>
       <c r="K188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -7022,13 +7022,13 @@
         <v>-0.4450825107186689</v>
       </c>
       <c r="I189">
-        <v>-0.445082510718669</v>
+        <v>-0.4450825107186691</v>
       </c>
       <c r="J189">
         <v>-0.1311475409836066</v>
       </c>
       <c r="K189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -7063,7 +7063,7 @@
         <v>-0.459016393442623</v>
       </c>
       <c r="K190">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -7098,7 +7098,7 @@
         <v>-0.459016393442623</v>
       </c>
       <c r="K191">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -7133,7 +7133,7 @@
         <v>-0.459016393442623</v>
       </c>
       <c r="K192">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -7162,13 +7162,13 @@
         <v>1.136174471912505</v>
       </c>
       <c r="I193">
-        <v>1.136174471912504</v>
+        <v>1.136174471912505</v>
       </c>
       <c r="J193">
         <v>-0.459016393442623</v>
       </c>
       <c r="K193">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -7197,13 +7197,13 @@
         <v>-0.4192820007032812</v>
       </c>
       <c r="I194">
-        <v>-0.4192820007032813</v>
+        <v>-0.4192820007032814</v>
       </c>
       <c r="J194">
         <v>-0.2622950819672131</v>
       </c>
       <c r="K194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -7232,13 +7232,13 @@
         <v>0.5649093931387211</v>
       </c>
       <c r="I195">
-        <v>0.5649093931387212</v>
+        <v>0.5649093931387213</v>
       </c>
       <c r="J195">
         <v>-0.2622950819672131</v>
       </c>
       <c r="K195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -7273,7 +7273,7 @@
         <v>-0.2622950819672131</v>
       </c>
       <c r="K196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -7302,13 +7302,13 @@
         <v>0.6710874290199179</v>
       </c>
       <c r="I197">
-        <v>0.6710874290199181</v>
+        <v>0.6710874290199184</v>
       </c>
       <c r="J197">
         <v>-0.2622950819672131</v>
       </c>
       <c r="K197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7343,7 +7343,7 @@
         <v>-0.5245901639344263</v>
       </c>
       <c r="K198">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7372,13 +7372,13 @@
         <v>0.7090941423846844</v>
       </c>
       <c r="I199">
-        <v>0.709094142384684</v>
+        <v>0.7090941423846842</v>
       </c>
       <c r="J199">
         <v>-0.5245901639344263</v>
       </c>
       <c r="K199">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7407,13 +7407,13 @@
         <v>-0.3489372422865575</v>
       </c>
       <c r="I200">
-        <v>-0.3489372422865574</v>
+        <v>-0.3489372422865575</v>
       </c>
       <c r="J200">
         <v>-0.5245901639344263</v>
       </c>
       <c r="K200">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7442,13 +7442,13 @@
         <v>1.367383281140286</v>
       </c>
       <c r="I201">
-        <v>1.367383281140286</v>
+        <v>1.367383281140287</v>
       </c>
       <c r="J201">
         <v>-0.5245901639344263</v>
       </c>
       <c r="K201">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -7477,13 +7477,13 @@
         <v>0.810579814557061</v>
       </c>
       <c r="I202">
-        <v>0.8105798145570604</v>
+        <v>0.8105798145570606</v>
       </c>
       <c r="J202">
         <v>1.420765027322404</v>
       </c>
       <c r="K202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -7512,13 +7512,13 @@
         <v>0.9043261864096435</v>
       </c>
       <c r="I203">
-        <v>0.9043261864096434</v>
+        <v>0.9043261864096435</v>
       </c>
       <c r="J203">
         <v>1.420765027322404</v>
       </c>
       <c r="K203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -7547,13 +7547,13 @@
         <v>-0.4930970744364708</v>
       </c>
       <c r="I204">
-        <v>-0.493097074436471</v>
+        <v>-0.4930970744364711</v>
       </c>
       <c r="J204">
         <v>1.420765027322404</v>
       </c>
       <c r="K204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -7582,13 +7582,13 @@
         <v>-0.5200136091316422</v>
       </c>
       <c r="I205">
-        <v>-0.5200136091316425</v>
+        <v>-0.5200136091316426</v>
       </c>
       <c r="J205">
         <v>1.420765027322404</v>
       </c>
       <c r="K205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -7623,7 +7623,7 @@
         <v>-0.6338797814207651</v>
       </c>
       <c r="K206">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -7652,13 +7652,13 @@
         <v>-0.3200005790299852</v>
       </c>
       <c r="I207">
-        <v>-0.3200005790299855</v>
+        <v>-0.3200005790299856</v>
       </c>
       <c r="J207">
         <v>-0.6338797814207651</v>
       </c>
       <c r="K207">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -7687,13 +7687,13 @@
         <v>0.7296350690090919</v>
       </c>
       <c r="I208">
-        <v>0.729635069009092</v>
+        <v>0.7296350690090923</v>
       </c>
       <c r="J208">
         <v>-0.6338797814207651</v>
       </c>
       <c r="K208">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -7722,13 +7722,13 @@
         <v>0.6086230713223654</v>
       </c>
       <c r="I209">
-        <v>0.6086230713223649</v>
+        <v>0.608623071322365</v>
       </c>
       <c r="J209">
         <v>-0.6338797814207651</v>
       </c>
       <c r="K209">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -7757,13 +7757,13 @@
         <v>-0.4799879351294776</v>
       </c>
       <c r="I210">
-        <v>-0.4799879351294777</v>
+        <v>-0.4799879351294778</v>
       </c>
       <c r="J210">
         <v>0.5901639344262295</v>
       </c>
       <c r="K210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -7792,13 +7792,13 @@
         <v>0.3058924380869306</v>
       </c>
       <c r="I211">
-        <v>0.3058924380869309</v>
+        <v>0.305892438086931</v>
       </c>
       <c r="J211">
         <v>0.5901639344262295</v>
       </c>
       <c r="K211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -7827,13 +7827,13 @@
         <v>-0.5119774607707618</v>
       </c>
       <c r="I212">
-        <v>-0.511977460770762</v>
+        <v>-0.5119774607707621</v>
       </c>
       <c r="J212">
         <v>0.5901639344262295</v>
       </c>
       <c r="K212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -7862,13 +7862,13 @@
         <v>0.05883807314838522</v>
       </c>
       <c r="I213">
-        <v>0.05883807314838529</v>
+        <v>0.0588380731483853</v>
       </c>
       <c r="J213">
         <v>0.5901639344262295</v>
       </c>
       <c r="K213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -7897,13 +7897,13 @@
         <v>-0.5695073035494708</v>
       </c>
       <c r="I214">
-        <v>-0.5695073035494709</v>
+        <v>-0.569507303549471</v>
       </c>
       <c r="J214">
         <v>0.7213114754098361</v>
       </c>
       <c r="K214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -7932,13 +7932,13 @@
         <v>0.7836371707399031</v>
       </c>
       <c r="I215">
-        <v>0.7836371707399034</v>
+        <v>0.7836371707399035</v>
       </c>
       <c r="J215">
         <v>0.7213114754098361</v>
       </c>
       <c r="K215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -7967,13 +7967,13 @@
         <v>-0.5345358705789151</v>
       </c>
       <c r="I216">
-        <v>-0.5345358705789153</v>
+        <v>-0.5345358705789154</v>
       </c>
       <c r="J216">
         <v>0.7213114754098361</v>
       </c>
       <c r="K216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -7993,7 +7993,7 @@
         <v>0.4731210080079009</v>
       </c>
       <c r="F217">
-        <v>-4.833458695684619e-05</v>
+        <v>-4.833458695684619E-05</v>
       </c>
       <c r="G217">
         <v>-0.1176767937522687</v>
@@ -8002,13 +8002,13 @@
         <v>0.7258760934423573</v>
       </c>
       <c r="I217">
-        <v>0.7258760934423575</v>
+        <v>0.7258760934423577</v>
       </c>
       <c r="J217">
         <v>0.7213114754098361</v>
       </c>
       <c r="K217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -8037,13 +8037,13 @@
         <v>-0.4679206573977006</v>
       </c>
       <c r="I218">
-        <v>-0.4679206573977009</v>
+        <v>-0.467920657397701</v>
       </c>
       <c r="J218">
         <v>-0.4808743169398907</v>
       </c>
       <c r="K218">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -8072,13 +8072,13 @@
         <v>0.9120346803709583</v>
       </c>
       <c r="I219">
-        <v>0.9120346803709587</v>
+        <v>0.9120346803709588</v>
       </c>
       <c r="J219">
         <v>-0.4808743169398907</v>
       </c>
       <c r="K219">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -8113,7 +8113,7 @@
         <v>-0.4808743169398907</v>
       </c>
       <c r="K220">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -8148,7 +8148,7 @@
         <v>-0.4808743169398907</v>
       </c>
       <c r="K221">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -8183,7 +8183,7 @@
         <v>-0.2622950819672131</v>
       </c>
       <c r="K222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -8218,7 +8218,7 @@
         <v>-0.2622950819672131</v>
       </c>
       <c r="K223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -8253,7 +8253,7 @@
         <v>-0.2622950819672131</v>
       </c>
       <c r="K224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -8288,7 +8288,7 @@
         <v>-0.2622950819672131</v>
       </c>
       <c r="K225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -8317,13 +8317,13 @@
         <v>0.8173189954050438</v>
       </c>
       <c r="I226">
-        <v>0.8173189954050439</v>
+        <v>0.817318995405044</v>
       </c>
       <c r="J226">
         <v>2.426229508196721</v>
       </c>
       <c r="K226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -8352,13 +8352,13 @@
         <v>-0.4473873541028627</v>
       </c>
       <c r="I227">
-        <v>-0.4473873541028628</v>
+        <v>-0.4473873541028629</v>
       </c>
       <c r="J227">
         <v>2.426229508196721</v>
       </c>
       <c r="K227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -8387,13 +8387,13 @@
         <v>-0.4381022148384673</v>
       </c>
       <c r="I228">
-        <v>-0.4381022148384674</v>
+        <v>-0.4381022148384675</v>
       </c>
       <c r="J228">
         <v>2.426229508196721</v>
       </c>
       <c r="K228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -8422,13 +8422,13 @@
         <v>0.367374917633487</v>
       </c>
       <c r="I229">
-        <v>0.3673749176334863</v>
+        <v>0.3673749176334865</v>
       </c>
       <c r="J229">
         <v>2.426229508196721</v>
       </c>
       <c r="K229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -8457,13 +8457,13 @@
         <v>-0.2833940218922656</v>
       </c>
       <c r="I230">
-        <v>-0.2833940218922657</v>
+        <v>-0.2833940218922658</v>
       </c>
       <c r="J230">
         <v>0.459016393442623</v>
       </c>
       <c r="K230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -8498,7 +8498,7 @@
         <v>0.459016393442623</v>
       </c>
       <c r="K231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -8527,13 +8527,13 @@
         <v>-0.2335325496019034</v>
       </c>
       <c r="I232">
-        <v>-0.2335325496019036</v>
+        <v>-0.2335325496019037</v>
       </c>
       <c r="J232">
         <v>-0.6120218579234973</v>
       </c>
       <c r="K232">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -8562,13 +8562,13 @@
         <v>-0.2076941466897865</v>
       </c>
       <c r="I233">
-        <v>-0.2076941466897866</v>
+        <v>-0.2076941466897867</v>
       </c>
       <c r="J233">
         <v>-0.6120218579234973</v>
       </c>
       <c r="K233">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -8597,13 +8597,13 @@
         <v>0.3204666179381545</v>
       </c>
       <c r="I234">
-        <v>0.3204666179381542</v>
+        <v>0.3204666179381543</v>
       </c>
       <c r="J234">
         <v>-0.6120218579234973</v>
       </c>
       <c r="K234">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -8632,13 +8632,13 @@
         <v>-0.500758296396533</v>
       </c>
       <c r="I235">
-        <v>-0.500758296396533</v>
+        <v>-0.5007582963965331</v>
       </c>
       <c r="J235">
         <v>-0.5245901639344263</v>
       </c>
       <c r="K235">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -8673,7 +8673,7 @@
         <v>-0.5245901639344263</v>
       </c>
       <c r="K236">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -8702,13 +8702,13 @@
         <v>0.2939218457780909</v>
       </c>
       <c r="I237">
-        <v>0.2939218457780912</v>
+        <v>0.2939218457780913</v>
       </c>
       <c r="J237">
         <v>-0.5245901639344263</v>
       </c>
       <c r="K237">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -8737,13 +8737,13 @@
         <v>-0.4818428012137032</v>
       </c>
       <c r="I238">
-        <v>-0.4818428012137033</v>
+        <v>-0.4818428012137034</v>
       </c>
       <c r="J238">
         <v>-0.5245901639344263</v>
       </c>
       <c r="K238">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -8778,7 +8778,7 @@
         <v>-0.3278688524590164</v>
       </c>
       <c r="K239">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -8813,7 +8813,7 @@
         <v>-0.3278688524590164</v>
       </c>
       <c r="K240">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -8848,7 +8848,7 @@
         <v>-0.3278688524590164</v>
       </c>
       <c r="K241">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -8877,13 +8877,13 @@
         <v>-0.3028576904572894</v>
       </c>
       <c r="I242">
-        <v>-0.3028576904572893</v>
+        <v>-0.3028576904572894</v>
       </c>
       <c r="J242">
         <v>-0.3278688524590164</v>
       </c>
       <c r="K242">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -8912,13 +8912,13 @@
         <v>0.5656591400256082</v>
       </c>
       <c r="I243">
-        <v>0.565659140025608</v>
+        <v>0.5656591400256081</v>
       </c>
       <c r="J243">
         <v>-0.2841530054644809</v>
       </c>
       <c r="K243">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -8947,13 +8947,13 @@
         <v>-0.4576473488224643</v>
       </c>
       <c r="I244">
-        <v>-0.4576473488224643</v>
+        <v>-0.4576473488224644</v>
       </c>
       <c r="J244">
         <v>-0.2841530054644809</v>
       </c>
       <c r="K244">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -8982,13 +8982,13 @@
         <v>-0.4851224817392817</v>
       </c>
       <c r="I245">
-        <v>-0.4851224817392819</v>
+        <v>-0.485122481739282</v>
       </c>
       <c r="J245">
         <v>-0.2841530054644809</v>
       </c>
       <c r="K245">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -9017,13 +9017,13 @@
         <v>0.06412396126324017</v>
       </c>
       <c r="I246">
-        <v>0.06412396126324038</v>
+        <v>0.06412396126324039</v>
       </c>
       <c r="J246">
         <v>-0.2841530054644809</v>
       </c>
       <c r="K246">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -9052,13 +9052,13 @@
         <v>-0.4840702018963495</v>
       </c>
       <c r="I247">
-        <v>-0.4840702018963495</v>
+        <v>-0.4840702018963496</v>
       </c>
       <c r="J247">
         <v>0.08743169398907104</v>
       </c>
       <c r="K247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -9093,7 +9093,7 @@
         <v>0.08743169398907104</v>
       </c>
       <c r="K248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -9128,7 +9128,7 @@
         <v>0.08743169398907104</v>
       </c>
       <c r="K249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -9157,13 +9157,13 @@
         <v>1.906917557694941</v>
       </c>
       <c r="I250">
-        <v>1.90691755769494</v>
+        <v>1.906917557694941</v>
       </c>
       <c r="J250">
         <v>0.08743169398907104</v>
       </c>
       <c r="K250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -9192,13 +9192,13 @@
         <v>-0.1148260090382743</v>
       </c>
       <c r="I251">
-        <v>-0.1148260090382745</v>
+        <v>-0.1148260090382746</v>
       </c>
       <c r="J251">
         <v>0.5901639344262295</v>
       </c>
       <c r="K251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -9227,13 +9227,13 @@
         <v>1.639227956735896</v>
       </c>
       <c r="I252">
-        <v>1.639227956735896</v>
+        <v>1.639227956735897</v>
       </c>
       <c r="J252">
         <v>0.5901639344262295</v>
       </c>
       <c r="K252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -9268,7 +9268,7 @@
         <v>0.5901639344262295</v>
       </c>
       <c r="K253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -9303,7 +9303,7 @@
         <v>0.5901639344262295</v>
       </c>
       <c r="K254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -9332,13 +9332,13 @@
         <v>0.8587882187710697</v>
       </c>
       <c r="I255">
-        <v>0.8587882187710694</v>
+        <v>0.8587882187710696</v>
       </c>
       <c r="J255">
         <v>-0.360655737704918</v>
       </c>
       <c r="K255">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -9367,13 +9367,13 @@
         <v>0.3867656700759368</v>
       </c>
       <c r="I256">
-        <v>0.3867656700759366</v>
+        <v>0.3867656700759367</v>
       </c>
       <c r="J256">
         <v>-0.360655737704918</v>
       </c>
       <c r="K256">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -9402,13 +9402,13 @@
         <v>-0.3144160756442312</v>
       </c>
       <c r="I257">
-        <v>-0.3144160756442314</v>
+        <v>-0.3144160756442315</v>
       </c>
       <c r="J257">
         <v>-0.360655737704918</v>
       </c>
       <c r="K257">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -9437,13 +9437,13 @@
         <v>-0.3781878127681401</v>
       </c>
       <c r="I258">
-        <v>-0.3781878127681402</v>
+        <v>-0.3781878127681403</v>
       </c>
       <c r="J258">
         <v>-0.360655737704918</v>
       </c>
       <c r="K258">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -9478,7 +9478,7 @@
         <v>1.049180327868853</v>
       </c>
       <c r="K259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -9507,13 +9507,13 @@
         <v>-0.3760753574514145</v>
       </c>
       <c r="I260">
-        <v>-0.3760753574514147</v>
+        <v>-0.3760753574514148</v>
       </c>
       <c r="J260">
         <v>1.049180327868853</v>
       </c>
       <c r="K260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -9548,7 +9548,7 @@
         <v>1.049180327868853</v>
       </c>
       <c r="K261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -9583,7 +9583,7 @@
         <v>1.049180327868853</v>
       </c>
       <c r="K262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -9618,7 +9618,7 @@
         <v>-0.1420765027322404</v>
       </c>
       <c r="K263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -9647,13 +9647,13 @@
         <v>1.260724785919092</v>
       </c>
       <c r="I264">
-        <v>1.260724785919092</v>
+        <v>1.260724785919093</v>
       </c>
       <c r="J264">
         <v>-0.1420765027322404</v>
       </c>
       <c r="K264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -9682,13 +9682,13 @@
         <v>0.7875892488483561</v>
       </c>
       <c r="I265">
-        <v>0.7875892488483561</v>
+        <v>0.7875892488483563</v>
       </c>
       <c r="J265">
         <v>-0.1420765027322404</v>
       </c>
       <c r="K265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -9723,7 +9723,7 @@
         <v>-0.1420765027322404</v>
       </c>
       <c r="K266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -9752,13 +9752,13 @@
         <v>0.874380190322208</v>
       </c>
       <c r="I267">
-        <v>0.8743801903222079</v>
+        <v>0.874380190322208</v>
       </c>
       <c r="J267">
         <v>0.7213114754098361</v>
       </c>
       <c r="K267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -9787,13 +9787,13 @@
         <v>0.3728138515856238</v>
       </c>
       <c r="I268">
-        <v>0.3728138515856243</v>
+        <v>0.3728138515856244</v>
       </c>
       <c r="J268">
         <v>0.7213114754098361</v>
       </c>
       <c r="K268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -9822,13 +9822,13 @@
         <v>-0.2681951804274336</v>
       </c>
       <c r="I269">
-        <v>-0.2681951804274336</v>
+        <v>-0.2681951804274337</v>
       </c>
       <c r="J269">
         <v>0.7213114754098361</v>
       </c>
       <c r="K269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -9857,13 +9857,13 @@
         <v>-0.4232829911240129</v>
       </c>
       <c r="I270">
-        <v>-0.423282991124013</v>
+        <v>-0.4232829911240131</v>
       </c>
       <c r="J270">
         <v>0.7213114754098361</v>
       </c>
       <c r="K270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -9898,7 +9898,7 @@
         <v>0.5901639344262295</v>
       </c>
       <c r="K271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:11">
@@ -9927,13 +9927,13 @@
         <v>1.374136273261524</v>
       </c>
       <c r="I272">
-        <v>1.374136273261524</v>
+        <v>1.374136273261525</v>
       </c>
       <c r="J272">
         <v>0.5901639344262295</v>
       </c>
       <c r="K272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -9962,13 +9962,13 @@
         <v>0.5988728515078384</v>
       </c>
       <c r="I273">
-        <v>0.5988728515078376</v>
+        <v>0.5988728515078378</v>
       </c>
       <c r="J273">
         <v>0.5901639344262295</v>
       </c>
       <c r="K273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -9997,13 +9997,13 @@
         <v>-0.282750826379476</v>
       </c>
       <c r="I274">
-        <v>-0.2827508263794761</v>
+        <v>-0.2827508263794762</v>
       </c>
       <c r="J274">
         <v>0.5901639344262295</v>
       </c>
       <c r="K274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -10032,13 +10032,13 @@
         <v>-0.4431911037173794</v>
       </c>
       <c r="I275">
-        <v>-0.4431911037173795</v>
+        <v>-0.4431911037173796</v>
       </c>
       <c r="J275">
         <v>2.950819672131148</v>
       </c>
       <c r="K275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:11">
@@ -10073,7 +10073,7 @@
         <v>2.950819672131148</v>
       </c>
       <c r="K276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:11">
@@ -10108,7 +10108,7 @@
         <v>2.950819672131148</v>
       </c>
       <c r="K277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:11">
@@ -10137,13 +10137,13 @@
         <v>-0.3969116114451657</v>
       </c>
       <c r="I278">
-        <v>-0.3969116114451658</v>
+        <v>-0.396911611445166</v>
       </c>
       <c r="J278">
         <v>2.950819672131148</v>
       </c>
       <c r="K278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -10178,7 +10178,7 @@
         <v>6.491803278688525</v>
       </c>
       <c r="K279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -10213,7 +10213,7 @@
         <v>6.491803278688525</v>
       </c>
       <c r="K280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -10248,7 +10248,7 @@
         <v>6.491803278688525</v>
       </c>
       <c r="K281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -10283,7 +10283,7 @@
         <v>6.491803278688525</v>
       </c>
       <c r="K282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -10318,7 +10318,7 @@
         <v>2.426229508196721</v>
       </c>
       <c r="K283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -10347,13 +10347,13 @@
         <v>0.7950115920761203</v>
       </c>
       <c r="I284">
-        <v>0.7950115920761203</v>
+        <v>0.7950115920761205</v>
       </c>
       <c r="J284">
         <v>2.426229508196721</v>
       </c>
       <c r="K284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -10382,13 +10382,13 @@
         <v>0.7710425996320958</v>
       </c>
       <c r="I285">
-        <v>0.7710425996320955</v>
+        <v>0.7710425996320958</v>
       </c>
       <c r="J285">
         <v>2.426229508196721</v>
       </c>
       <c r="K285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -10417,13 +10417,13 @@
         <v>-0.03724561216195681</v>
       </c>
       <c r="I286">
-        <v>-0.0372456121619566</v>
+        <v>-0.03724561216195661</v>
       </c>
       <c r="J286">
         <v>2.426229508196721</v>
       </c>
       <c r="K286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -10452,13 +10452,13 @@
         <v>-0.3593860956389033</v>
       </c>
       <c r="I287">
-        <v>-0.3593860956389033</v>
+        <v>-0.3593860956389034</v>
       </c>
       <c r="J287">
         <v>2.491803278688525</v>
       </c>
       <c r="K287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -10487,13 +10487,13 @@
         <v>0.9812554980405664</v>
       </c>
       <c r="I288">
-        <v>0.9812554980405666</v>
+        <v>0.9812554980405668</v>
       </c>
       <c r="J288">
         <v>2.491803278688525</v>
       </c>
       <c r="K288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -10522,13 +10522,13 @@
         <v>-0.08945343334939997</v>
       </c>
       <c r="I289">
-        <v>-0.08945343334940006</v>
+        <v>-0.08945343334940008</v>
       </c>
       <c r="J289">
         <v>2.491803278688525</v>
       </c>
       <c r="K289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -10563,7 +10563,7 @@
         <v>2.491803278688525</v>
       </c>
       <c r="K290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -10592,13 +10592,13 @@
         <v>-0.245613865019059</v>
       </c>
       <c r="I291">
-        <v>-0.245613865019059</v>
+        <v>-0.2456138650190591</v>
       </c>
       <c r="J291">
         <v>0.06557377049180328</v>
       </c>
       <c r="K291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -10633,7 +10633,7 @@
         <v>0.06557377049180328</v>
       </c>
       <c r="K292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -10662,13 +10662,13 @@
         <v>0.7641381842785288</v>
       </c>
       <c r="I293">
-        <v>0.7641381842785288</v>
+        <v>0.7641381842785289</v>
       </c>
       <c r="J293">
         <v>0.06557377049180328</v>
       </c>
       <c r="K293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -10703,7 +10703,7 @@
         <v>0.06557377049180328</v>
       </c>
       <c r="K294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -10732,13 +10732,13 @@
         <v>1.566610965472454</v>
       </c>
       <c r="I295">
-        <v>1.566610965472454</v>
+        <v>1.566610965472455</v>
       </c>
       <c r="J295">
         <v>1.114754098360656</v>
       </c>
       <c r="K295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -10773,7 +10773,7 @@
         <v>1.114754098360656</v>
       </c>
       <c r="K296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -10802,13 +10802,13 @@
         <v>-0.3052401329341705</v>
       </c>
       <c r="I297">
-        <v>-0.3052401329341704</v>
+        <v>-0.3052401329341705</v>
       </c>
       <c r="J297">
         <v>1.114754098360656</v>
       </c>
       <c r="K297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -10837,13 +10837,13 @@
         <v>0.7425026070567451</v>
       </c>
       <c r="I298">
-        <v>0.7425026070567459</v>
+        <v>0.742502607056746</v>
       </c>
       <c r="J298">
         <v>1.114754098360656</v>
       </c>
       <c r="K298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -10872,13 +10872,13 @@
         <v>-0.3132574200300972</v>
       </c>
       <c r="I299">
-        <v>-0.3132574200300975</v>
+        <v>-0.3132574200300976</v>
       </c>
       <c r="J299">
         <v>1.180327868852459</v>
       </c>
       <c r="K299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -10913,7 +10913,7 @@
         <v>1.180327868852459</v>
       </c>
       <c r="K300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -10942,13 +10942,13 @@
         <v>-0.2412102365292599</v>
       </c>
       <c r="I301">
-        <v>-0.24121023652926</v>
+        <v>-0.2412102365292601</v>
       </c>
       <c r="J301">
         <v>1.180327868852459</v>
       </c>
       <c r="K301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:11">
@@ -10977,13 +10977,13 @@
         <v>0.4287241352193737</v>
       </c>
       <c r="I302">
-        <v>0.4287241352193736</v>
+        <v>0.4287241352193737</v>
       </c>
       <c r="J302">
         <v>1.180327868852459</v>
       </c>
       <c r="K302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -11012,13 +11012,13 @@
         <v>0.5020521203419388</v>
       </c>
       <c r="I303">
-        <v>0.5020521203419394</v>
+        <v>0.5020521203419395</v>
       </c>
       <c r="J303">
         <v>1.398907103825137</v>
       </c>
       <c r="K303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -11047,13 +11047,13 @@
         <v>-0.0361719599542169</v>
       </c>
       <c r="I304">
-        <v>-0.03617195995421719</v>
+        <v>-0.0361719599542172</v>
       </c>
       <c r="J304">
         <v>1.398907103825137</v>
       </c>
       <c r="K304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:11">
@@ -11088,7 +11088,7 @@
         <v>1.398907103825137</v>
       </c>
       <c r="K305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:11">
@@ -11117,13 +11117,13 @@
         <v>0.9438586007312102</v>
       </c>
       <c r="I306">
-        <v>0.9438586007312104</v>
+        <v>0.9438586007312106</v>
       </c>
       <c r="J306">
         <v>1.398907103825137</v>
       </c>
       <c r="K306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:11">
@@ -11152,13 +11152,13 @@
         <v>0.9222792780424763</v>
       </c>
       <c r="I307">
-        <v>0.9222792780424761</v>
+        <v>0.9222792780424763</v>
       </c>
       <c r="J307">
         <v>-0.06557377049180328</v>
       </c>
       <c r="K307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:11">
@@ -11187,13 +11187,13 @@
         <v>-0.4345025093262489</v>
       </c>
       <c r="I308">
-        <v>-0.434502509326249</v>
+        <v>-0.4345025093262491</v>
       </c>
       <c r="J308">
         <v>-0.06557377049180328</v>
       </c>
       <c r="K308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:11">
@@ -11222,13 +11222,13 @@
         <v>-0.5292491328118163</v>
       </c>
       <c r="I309">
-        <v>-0.5292491328118166</v>
+        <v>-0.5292491328118167</v>
       </c>
       <c r="J309">
         <v>-0.06557377049180328</v>
       </c>
       <c r="K309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:11">
@@ -11257,13 +11257,13 @@
         <v>0.3751013015518461</v>
       </c>
       <c r="I310">
-        <v>0.3751013015518467</v>
+        <v>0.3751013015518468</v>
       </c>
       <c r="J310">
         <v>-0.06557377049180328</v>
       </c>
       <c r="K310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:11">
@@ -11283,7 +11283,7 @@
         <v>1.550611022630178</v>
       </c>
       <c r="F311">
-        <v>4.833458695684619e-05</v>
+        <v>4.833458695684619E-05</v>
       </c>
       <c r="G311">
         <v>1.187004569252976</v>
@@ -11292,13 +11292,13 @@
         <v>0.6136879528981255</v>
       </c>
       <c r="I311">
-        <v>0.6136879528981255</v>
+        <v>0.6136879528981256</v>
       </c>
       <c r="J311">
         <v>-0.459016393442623</v>
       </c>
       <c r="K311">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:11">
@@ -11327,13 +11327,13 @@
         <v>-0.5380000152189439</v>
       </c>
       <c r="I312">
-        <v>-0.5380000152189442</v>
+        <v>-0.5380000152189444</v>
       </c>
       <c r="J312">
         <v>-0.459016393442623</v>
       </c>
       <c r="K312">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:11">
@@ -11362,13 +11362,13 @@
         <v>-0.541864693768816</v>
       </c>
       <c r="I313">
-        <v>-0.5418646937688161</v>
+        <v>-0.5418646937688162</v>
       </c>
       <c r="J313">
         <v>-0.459016393442623</v>
       </c>
       <c r="K313">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:11">
@@ -11397,13 +11397,13 @@
         <v>0.5867938972767285</v>
       </c>
       <c r="I314">
-        <v>0.5867938972767283</v>
+        <v>0.5867938972767284</v>
       </c>
       <c r="J314">
         <v>-0.459016393442623</v>
       </c>
       <c r="K314">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:11">
@@ -11432,13 +11432,13 @@
         <v>0.8947536682746351</v>
       </c>
       <c r="I315">
-        <v>0.8947536682746358</v>
+        <v>0.894753668274636</v>
       </c>
       <c r="J315">
         <v>2.426229508196721</v>
       </c>
       <c r="K315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -11467,13 +11467,13 @@
         <v>1.288065890749877</v>
       </c>
       <c r="I316">
-        <v>1.288065890749877</v>
+        <v>1.288065890749878</v>
       </c>
       <c r="J316">
         <v>2.426229508196721</v>
       </c>
       <c r="K316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:11">
@@ -11508,7 +11508,7 @@
         <v>2.426229508196721</v>
       </c>
       <c r="K317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:11">
@@ -11537,13 +11537,13 @@
         <v>-0.2509177084211106</v>
       </c>
       <c r="I318">
-        <v>-0.2509177084211104</v>
+        <v>-0.2509177084211105</v>
       </c>
       <c r="J318">
         <v>2.426229508196721</v>
       </c>
       <c r="K318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:11">
@@ -11572,13 +11572,13 @@
         <v>0.9995463112676112</v>
       </c>
       <c r="I319">
-        <v>0.9995463112676107</v>
+        <v>0.999546311267611</v>
       </c>
       <c r="J319">
         <v>0.2622950819672131</v>
       </c>
       <c r="K319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:11">
@@ -11607,13 +11607,13 @@
         <v>-0.3125742086804955</v>
       </c>
       <c r="I320">
-        <v>-0.3125742086804957</v>
+        <v>-0.3125742086804958</v>
       </c>
       <c r="J320">
         <v>0.2622950819672131</v>
       </c>
       <c r="K320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:11">
@@ -11642,13 +11642,13 @@
         <v>0.7217455303904383</v>
       </c>
       <c r="I321">
-        <v>0.7217455303904382</v>
+        <v>0.7217455303904384</v>
       </c>
       <c r="J321">
         <v>0.2622950819672131</v>
       </c>
       <c r="K321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:11">
@@ -11677,13 +11677,13 @@
         <v>-0.2335327784303366</v>
       </c>
       <c r="I322">
-        <v>-0.2335327784303365</v>
+        <v>-0.2335327784303366</v>
       </c>
       <c r="J322">
         <v>0.2622950819672131</v>
       </c>
       <c r="K322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -11712,13 +11712,13 @@
         <v>0.5951059484575073</v>
       </c>
       <c r="I323">
-        <v>0.5951059484575069</v>
+        <v>0.595105948457507</v>
       </c>
       <c r="J323">
         <v>1.508196721311475</v>
       </c>
       <c r="K323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:11">
@@ -11747,13 +11747,13 @@
         <v>-0.4133943045599604</v>
       </c>
       <c r="I324">
-        <v>-0.4133943045599605</v>
+        <v>-0.4133943045599606</v>
       </c>
       <c r="J324">
         <v>1.508196721311475</v>
       </c>
       <c r="K324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -11782,13 +11782,13 @@
         <v>0.4202693258209048</v>
       </c>
       <c r="I325">
-        <v>0.4202693258209048</v>
+        <v>0.4202693258209049</v>
       </c>
       <c r="J325">
         <v>1.508196721311475</v>
       </c>
       <c r="K325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:11">
@@ -11817,13 +11817,13 @@
         <v>-0.4392873813653098</v>
       </c>
       <c r="I326">
-        <v>-0.43928738136531</v>
+        <v>-0.4392873813653101</v>
       </c>
       <c r="J326">
         <v>1.508196721311475</v>
       </c>
       <c r="K326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:11">
@@ -11858,7 +11858,7 @@
         <v>-0.06557377049180328</v>
       </c>
       <c r="K327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:11">
@@ -11893,7 +11893,7 @@
         <v>-0.06557377049180328</v>
       </c>
       <c r="K328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:11">
@@ -11928,7 +11928,7 @@
         <v>-0.06557377049180328</v>
       </c>
       <c r="K329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:11">
@@ -11963,7 +11963,7 @@
         <v>-0.06557377049180328</v>
       </c>
       <c r="K330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:11">
@@ -11992,13 +11992,13 @@
         <v>2.801841164240592</v>
       </c>
       <c r="I331">
-        <v>2.801841164240592</v>
+        <v>2.801841164240593</v>
       </c>
       <c r="J331">
         <v>1.245901639344262</v>
       </c>
       <c r="K331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:11">
@@ -12027,13 +12027,13 @@
         <v>1.682606849416342</v>
       </c>
       <c r="I332">
-        <v>1.682606849416342</v>
+        <v>1.682606849416343</v>
       </c>
       <c r="J332">
         <v>1.245901639344262</v>
       </c>
       <c r="K332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:11">
@@ -12062,13 +12062,13 @@
         <v>0.04959403863793007</v>
       </c>
       <c r="I333">
-        <v>0.04959403863793028</v>
+        <v>0.04959403863793029</v>
       </c>
       <c r="J333">
         <v>1.245901639344262</v>
       </c>
       <c r="K333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:11">
@@ -12097,13 +12097,13 @@
         <v>0.3876118528968481</v>
       </c>
       <c r="I334">
-        <v>0.3876118528968483</v>
+        <v>0.3876118528968484</v>
       </c>
       <c r="J334">
         <v>1.245901639344262</v>
       </c>
       <c r="K334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:11">
@@ -12132,13 +12132,13 @@
         <v>-0.5128551244660551</v>
       </c>
       <c r="I335">
-        <v>-0.5128551244660553</v>
+        <v>-0.5128551244660554</v>
       </c>
       <c r="J335">
         <v>0.8524590163934426</v>
       </c>
       <c r="K335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:11">
@@ -12173,7 +12173,7 @@
         <v>0.8524590163934426</v>
       </c>
       <c r="K336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:11">
@@ -12202,13 +12202,13 @@
         <v>-0.4562150294869451</v>
       </c>
       <c r="I337">
-        <v>-0.4562150294869452</v>
+        <v>-0.4562150294869453</v>
       </c>
       <c r="J337">
         <v>-0.7213114754098361</v>
       </c>
       <c r="K337">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:11">
@@ -12243,7 +12243,7 @@
         <v>-0.7213114754098361</v>
       </c>
       <c r="K338">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:11">
@@ -12272,13 +12272,13 @@
         <v>0.9838865857068471</v>
       </c>
       <c r="I339">
-        <v>0.9838865857068468</v>
+        <v>0.983886585706847</v>
       </c>
       <c r="J339">
         <v>-0.7213114754098361</v>
       </c>
       <c r="K339">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:11">
@@ -12313,7 +12313,7 @@
         <v>-0.7213114754098361</v>
       </c>
       <c r="K340">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:11">
@@ -12342,13 +12342,13 @@
         <v>-0.4949064540340703</v>
       </c>
       <c r="I341">
-        <v>-0.4949064540340703</v>
+        <v>-0.4949064540340704</v>
       </c>
       <c r="J341">
         <v>-0.5573770491803278</v>
       </c>
       <c r="K341">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:11">
@@ -12377,13 +12377,13 @@
         <v>-0.4980213927847602</v>
       </c>
       <c r="I342">
-        <v>-0.4980213927847605</v>
+        <v>-0.4980213927847606</v>
       </c>
       <c r="J342">
         <v>-0.5573770491803278</v>
       </c>
       <c r="K342">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:11">
@@ -12412,13 +12412,13 @@
         <v>0.6296986984469708</v>
       </c>
       <c r="I343">
-        <v>0.6296986984469707</v>
+        <v>0.6296986984469708</v>
       </c>
       <c r="J343">
         <v>-0.5573770491803278</v>
       </c>
       <c r="K343">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:11">
@@ -12453,7 +12453,7 @@
         <v>-0.5573770491803278</v>
       </c>
       <c r="K344">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:11">
@@ -12482,13 +12482,13 @@
         <v>0.3338389045791948</v>
       </c>
       <c r="I345">
-        <v>0.333838904579195</v>
+        <v>0.3338389045791951</v>
       </c>
       <c r="J345">
         <v>-0.1311475409836066</v>
       </c>
       <c r="K345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:11">
@@ -12517,13 +12517,13 @@
         <v>-0.4876612481840889</v>
       </c>
       <c r="I346">
-        <v>-0.487661248184089</v>
+        <v>-0.4876612481840891</v>
       </c>
       <c r="J346">
         <v>-0.1311475409836066</v>
       </c>
       <c r="K346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:11">
@@ -12552,13 +12552,13 @@
         <v>-0.008920220760736756</v>
       </c>
       <c r="I347">
-        <v>-0.008920220760737044</v>
+        <v>-0.008920220760737046</v>
       </c>
       <c r="J347">
         <v>-0.1311475409836066</v>
       </c>
       <c r="K347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:11">
@@ -12587,13 +12587,13 @@
         <v>-0.4995718626276471</v>
       </c>
       <c r="I348">
-        <v>-0.4995718626276472</v>
+        <v>-0.4995718626276473</v>
       </c>
       <c r="J348">
         <v>-0.1311475409836066</v>
       </c>
       <c r="K348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:11">
@@ -12622,13 +12622,13 @@
         <v>0.1871878353160783</v>
       </c>
       <c r="I349">
-        <v>0.1871878353160784</v>
+        <v>0.1871878353160785</v>
       </c>
       <c r="J349">
         <v>-0.2622950819672131</v>
       </c>
       <c r="K349">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:11">
@@ -12657,13 +12657,13 @@
         <v>-0.4723842976776825</v>
       </c>
       <c r="I350">
-        <v>-0.4723842976776826</v>
+        <v>-0.4723842976776828</v>
       </c>
       <c r="J350">
         <v>-0.2622950819672131</v>
       </c>
       <c r="K350">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:11">
@@ -12692,13 +12692,13 @@
         <v>0.7190672951215622</v>
       </c>
       <c r="I351">
-        <v>0.7190672951215623</v>
+        <v>0.7190672951215624</v>
       </c>
       <c r="J351">
         <v>-0.2622950819672131</v>
       </c>
       <c r="K351">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:11">
@@ -12727,13 +12727,13 @@
         <v>-0.3328915638147021</v>
       </c>
       <c r="I352">
-        <v>-0.3328915638147021</v>
+        <v>-0.3328915638147022</v>
       </c>
       <c r="J352">
         <v>-0.2622950819672131</v>
       </c>
       <c r="K352">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:11">
@@ -12768,7 +12768,7 @@
         <v>1.46448087431694</v>
       </c>
       <c r="K353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:11">
@@ -12797,13 +12797,13 @@
         <v>0.5034615672839696</v>
       </c>
       <c r="I354">
-        <v>0.5034615672839696</v>
+        <v>0.5034615672839697</v>
       </c>
       <c r="J354">
         <v>1.46448087431694</v>
       </c>
       <c r="K354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:11">
@@ -12832,13 +12832,13 @@
         <v>0.3481876741948252</v>
       </c>
       <c r="I355">
-        <v>0.3481876741948255</v>
+        <v>0.3481876741948256</v>
       </c>
       <c r="J355">
         <v>1.46448087431694</v>
       </c>
       <c r="K355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:11">
@@ -12867,13 +12867,13 @@
         <v>-0.3499916741756515</v>
       </c>
       <c r="I356">
-        <v>-0.3499916741756519</v>
+        <v>-0.349991674175652</v>
       </c>
       <c r="J356">
         <v>1.46448087431694</v>
       </c>
       <c r="K356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:11">
@@ -12902,13 +12902,13 @@
         <v>0.08185757912238339</v>
       </c>
       <c r="I357">
-        <v>0.08185757912238338</v>
+        <v>0.08185757912238339</v>
       </c>
       <c r="J357">
         <v>0.1092896174863388</v>
       </c>
       <c r="K357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:11">
@@ -12943,7 +12943,7 @@
         <v>0.1092896174863388</v>
       </c>
       <c r="K358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:11">
@@ -12978,7 +12978,7 @@
         <v>0.1092896174863388</v>
       </c>
       <c r="K359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:11">
@@ -13013,7 +13013,7 @@
         <v>0.1092896174863388</v>
       </c>
       <c r="K360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:11">
@@ -13042,13 +13042,13 @@
         <v>-0.3147516847582202</v>
       </c>
       <c r="I361">
-        <v>-0.31475168475822</v>
+        <v>-0.3147516847582201</v>
       </c>
       <c r="J361">
         <v>-0.2295081967213115</v>
       </c>
       <c r="K361">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:11">
@@ -13083,7 +13083,7 @@
         <v>-0.2295081967213115</v>
       </c>
       <c r="K362">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:11">
@@ -13118,7 +13118,7 @@
         <v>-0.2295081967213115</v>
       </c>
       <c r="K363">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:11">
@@ -13153,7 +13153,7 @@
         <v>-0.2295081967213115</v>
       </c>
       <c r="K364">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:11">
@@ -13188,7 +13188,7 @@
         <v>0.3934426229508197</v>
       </c>
       <c r="K365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:11">
@@ -13217,13 +13217,13 @@
         <v>-0.4624108961382231</v>
       </c>
       <c r="I366">
-        <v>-0.4624108961382233</v>
+        <v>-0.4624108961382234</v>
       </c>
       <c r="J366">
         <v>0.3934426229508197</v>
       </c>
       <c r="K366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:11">
@@ -13252,13 +13252,13 @@
         <v>1.754568655242506</v>
       </c>
       <c r="I367">
-        <v>1.754568655242506</v>
+        <v>1.754568655242507</v>
       </c>
       <c r="J367">
         <v>0.3934426229508197</v>
       </c>
       <c r="K367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:11">
@@ -13293,7 +13293,7 @@
         <v>0.3934426229508197</v>
       </c>
       <c r="K368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:11">
@@ -13322,13 +13322,13 @@
         <v>-0.5337518039395044</v>
       </c>
       <c r="I369">
-        <v>-0.5337518039395046</v>
+        <v>-0.5337518039395047</v>
       </c>
       <c r="J369">
         <v>-0.1967213114754098</v>
       </c>
       <c r="K369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:11">
@@ -13357,13 +13357,13 @@
         <v>0.9376055072468071</v>
       </c>
       <c r="I370">
-        <v>0.937605507246807</v>
+        <v>0.9376055072468072</v>
       </c>
       <c r="J370">
         <v>-0.1967213114754098</v>
       </c>
       <c r="K370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:11">
@@ -13392,13 +13392,13 @@
         <v>0.7459972635947201</v>
       </c>
       <c r="I371">
-        <v>0.74599726359472</v>
+        <v>0.7459972635947202</v>
       </c>
       <c r="J371">
         <v>-0.1967213114754098</v>
       </c>
       <c r="K371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:11">
@@ -13427,13 +13427,13 @@
         <v>-0.4632397677804989</v>
       </c>
       <c r="I372">
-        <v>-0.463239767780499</v>
+        <v>-0.4632397677804991</v>
       </c>
       <c r="J372">
         <v>-0.1967213114754098</v>
       </c>
       <c r="K372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:11">
@@ -13468,7 +13468,7 @@
         <v>1.311475409836065</v>
       </c>
       <c r="K373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:11">
@@ -13503,7 +13503,7 @@
         <v>1.311475409836065</v>
       </c>
       <c r="K374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:11">
@@ -13532,13 +13532,13 @@
         <v>-0.3884943474767492</v>
       </c>
       <c r="I375">
-        <v>-0.3884943474767494</v>
+        <v>-0.3884943474767495</v>
       </c>
       <c r="J375">
         <v>1.311475409836065</v>
       </c>
       <c r="K375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:11">
@@ -13567,13 +13567,13 @@
         <v>0.9616333891961221</v>
       </c>
       <c r="I376">
-        <v>0.961633389196122</v>
+        <v>0.9616333891961222</v>
       </c>
       <c r="J376">
         <v>1.311475409836065</v>
       </c>
       <c r="K376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:11">
@@ -13602,13 +13602,13 @@
         <v>-0.5318154837535033</v>
       </c>
       <c r="I377">
-        <v>-0.5318154837535036</v>
+        <v>-0.5318154837535037</v>
       </c>
       <c r="J377">
         <v>0.6557377049180327</v>
       </c>
       <c r="K377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:11">
@@ -13637,13 +13637,13 @@
         <v>-0.5722120228073988</v>
       </c>
       <c r="I378">
-        <v>-0.5722120228073989</v>
+        <v>-0.572212022807399</v>
       </c>
       <c r="J378">
         <v>0.6557377049180327</v>
       </c>
       <c r="K378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:11">
@@ -13672,13 +13672,13 @@
         <v>0.07755924441197362</v>
       </c>
       <c r="I379">
-        <v>0.07755924441197348</v>
+        <v>0.0775592444119735</v>
       </c>
       <c r="J379">
         <v>0.6557377049180327</v>
       </c>
       <c r="K379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:11">
@@ -13707,13 +13707,13 @@
         <v>-0.09269752993767649</v>
       </c>
       <c r="I380">
-        <v>-0.09269752993767663</v>
+        <v>-0.09269752993767665</v>
       </c>
       <c r="J380">
         <v>0.6557377049180327</v>
       </c>
       <c r="K380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:11">
@@ -13742,13 +13742,13 @@
         <v>0.7782588980508508</v>
       </c>
       <c r="I381">
-        <v>0.7782588980508508</v>
+        <v>0.7782588980508509</v>
       </c>
       <c r="J381">
         <v>-0.2622950819672131</v>
       </c>
       <c r="K381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:11">
@@ -13783,7 +13783,7 @@
         <v>-0.2622950819672131</v>
       </c>
       <c r="K382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:11">
@@ -13818,7 +13818,7 @@
         <v>-0.2622950819672131</v>
       </c>
       <c r="K383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:11">
@@ -13853,7 +13853,7 @@
         <v>-0.2622950819672131</v>
       </c>
       <c r="K384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:11">
@@ -13888,7 +13888,7 @@
         <v>1.704918032786885</v>
       </c>
       <c r="K385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:11">
@@ -13917,13 +13917,13 @@
         <v>-0.4567195364106326</v>
       </c>
       <c r="I386">
-        <v>-0.4567195364106327</v>
+        <v>-0.4567195364106328</v>
       </c>
       <c r="J386">
         <v>1.704918032786885</v>
       </c>
       <c r="K386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:11">
@@ -13958,7 +13958,7 @@
         <v>1.704918032786885</v>
       </c>
       <c r="K387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:11">
@@ -13987,13 +13987,13 @@
         <v>0.406285609603079</v>
       </c>
       <c r="I388">
-        <v>0.4062856096030797</v>
+        <v>0.4062856096030798</v>
       </c>
       <c r="J388">
         <v>1.704918032786885</v>
       </c>
       <c r="K388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:11">
@@ -14022,13 +14022,13 @@
         <v>0.4258077217669697</v>
       </c>
       <c r="I389">
-        <v>0.4258077217669697</v>
+        <v>0.4258077217669698</v>
       </c>
       <c r="J389">
         <v>0.459016393442623</v>
       </c>
       <c r="K389">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:11">
@@ -14063,7 +14063,7 @@
         <v>0.459016393442623</v>
       </c>
       <c r="K390">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:11">
@@ -14092,13 +14092,13 @@
         <v>0.5346551201046662</v>
       </c>
       <c r="I391">
-        <v>0.5346551201046656</v>
+        <v>0.5346551201046658</v>
       </c>
       <c r="J391">
         <v>0.459016393442623</v>
       </c>
       <c r="K391">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:11">
@@ -14133,7 +14133,7 @@
         <v>0.459016393442623</v>
       </c>
       <c r="K392">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:11">
@@ -14162,13 +14162,13 @@
         <v>-0.5450346108527899</v>
       </c>
       <c r="I393">
-        <v>-0.54503461085279</v>
+        <v>-0.5450346108527901</v>
       </c>
       <c r="J393">
         <v>1.508196721311475</v>
       </c>
       <c r="K393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:11">
@@ -14197,13 +14197,13 @@
         <v>-0.4836635398636577</v>
       </c>
       <c r="I394">
-        <v>-0.4836635398636578</v>
+        <v>-0.4836635398636579</v>
       </c>
       <c r="J394">
         <v>1.508196721311475</v>
       </c>
       <c r="K394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:11">
@@ -14232,13 +14232,13 @@
         <v>0.4896356766081447</v>
       </c>
       <c r="I395">
-        <v>0.4896356766081441</v>
+        <v>0.4896356766081442</v>
       </c>
       <c r="J395">
         <v>1.508196721311475</v>
       </c>
       <c r="K395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:11">
@@ -14273,7 +14273,7 @@
         <v>1.508196721311475</v>
       </c>
       <c r="K396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:11">
@@ -14308,7 +14308,7 @@
         <v>1.114754098360656</v>
       </c>
       <c r="K397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:11">
@@ -14343,7 +14343,7 @@
         <v>1.114754098360656</v>
       </c>
       <c r="K398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:11">
@@ -14378,7 +14378,7 @@
         <v>1.114754098360656</v>
       </c>
       <c r="K399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:11">
@@ -14413,7 +14413,7 @@
         <v>1.114754098360656</v>
       </c>
       <c r="K400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:11">
@@ -14442,13 +14442,13 @@
         <v>-0.3116934156656236</v>
       </c>
       <c r="I401">
-        <v>-0.3116934156656237</v>
+        <v>-0.3116934156656238</v>
       </c>
       <c r="J401">
         <v>0.1967213114754098</v>
       </c>
       <c r="K401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:11">
@@ -14483,7 +14483,7 @@
         <v>0.1967213114754098</v>
       </c>
       <c r="K402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:11">
@@ -14518,7 +14518,7 @@
         <v>0.1967213114754098</v>
       </c>
       <c r="K403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:11">
@@ -14553,7 +14553,7 @@
         <v>0.1967213114754098</v>
       </c>
       <c r="K404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:11">
@@ -14582,13 +14582,13 @@
         <v>0.7778862305139501</v>
       </c>
       <c r="I405">
-        <v>0.7778862305139504</v>
+        <v>0.7778862305139507</v>
       </c>
       <c r="J405">
         <v>-0.2295081967213115</v>
       </c>
       <c r="K405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:11">
@@ -14623,7 +14623,7 @@
         <v>-0.2295081967213115</v>
       </c>
       <c r="K406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:11">
@@ -14652,13 +14652,13 @@
         <v>0.507292066468884</v>
       </c>
       <c r="I407">
-        <v>0.5072920664688839</v>
+        <v>0.507292066468884</v>
       </c>
       <c r="J407">
         <v>-0.2295081967213115</v>
       </c>
       <c r="K407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:11">
@@ -14687,13 +14687,13 @@
         <v>-0.3399887554797611</v>
       </c>
       <c r="I408">
-        <v>-0.3399887554797612</v>
+        <v>-0.3399887554797613</v>
       </c>
       <c r="J408">
         <v>-0.2295081967213115</v>
       </c>
       <c r="K408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:11">
@@ -14722,13 +14722,13 @@
         <v>0.7959404767681139</v>
       </c>
       <c r="I409">
-        <v>0.7959404767681141</v>
+        <v>0.7959404767681143</v>
       </c>
       <c r="J409">
         <v>-0.459016393442623</v>
       </c>
       <c r="K409">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:11">
@@ -14763,7 +14763,7 @@
         <v>-0.459016393442623</v>
       </c>
       <c r="K410">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:11">
@@ -14792,13 +14792,13 @@
         <v>0.8067495149402307</v>
       </c>
       <c r="I411">
-        <v>0.8067495149402303</v>
+        <v>0.8067495149402304</v>
       </c>
       <c r="J411">
         <v>-0.459016393442623</v>
       </c>
       <c r="K411">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:11">
@@ -14827,13 +14827,13 @@
         <v>-0.212270438227905</v>
       </c>
       <c r="I412">
-        <v>-0.2122704382279048</v>
+        <v>-0.2122704382279049</v>
       </c>
       <c r="J412">
         <v>-0.459016393442623</v>
       </c>
       <c r="K412">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:11">
@@ -14862,13 +14862,13 @@
         <v>-0.4779539726946176</v>
       </c>
       <c r="I413">
-        <v>-0.4779539726946178</v>
+        <v>-0.4779539726946179</v>
       </c>
       <c r="J413">
         <v>0.5027322404371585</v>
       </c>
       <c r="K413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:11">
@@ -14897,13 +14897,13 @@
         <v>0.8933207070898164</v>
       </c>
       <c r="I414">
-        <v>0.8933207070898163</v>
+        <v>0.8933207070898165</v>
       </c>
       <c r="J414">
         <v>0.5027322404371585</v>
       </c>
       <c r="K414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:11">
@@ -14932,13 +14932,13 @@
         <v>-0.402471381664574</v>
       </c>
       <c r="I415">
-        <v>-0.4024713816645741</v>
+        <v>-0.4024713816645742</v>
       </c>
       <c r="J415">
         <v>0.5027322404371585</v>
       </c>
       <c r="K415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:11">
@@ -14967,13 +14967,13 @@
         <v>0.9697856433880178</v>
       </c>
       <c r="I416">
-        <v>0.9697856433880186</v>
+        <v>0.9697856433880189</v>
       </c>
       <c r="J416">
         <v>0.5027322404371585</v>
       </c>
       <c r="K416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:11">
@@ -15002,13 +15002,13 @@
         <v>-0.3323755824843951</v>
       </c>
       <c r="I417">
-        <v>-0.3323755824843953</v>
+        <v>-0.3323755824843954</v>
       </c>
       <c r="J417">
         <v>-0.2950819672131147</v>
       </c>
       <c r="K417">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:11">
@@ -15037,13 +15037,13 @@
         <v>0.7506558451955679</v>
       </c>
       <c r="I418">
-        <v>0.7506558451955676</v>
+        <v>0.7506558451955678</v>
       </c>
       <c r="J418">
         <v>-0.2950819672131147</v>
       </c>
       <c r="K418">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:11">
@@ -15072,13 +15072,13 @@
         <v>-0.3891951638040604</v>
       </c>
       <c r="I419">
-        <v>-0.3891951638040606</v>
+        <v>-0.3891951638040607</v>
       </c>
       <c r="J419">
         <v>-0.2950819672131147</v>
       </c>
       <c r="K419">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:11">
@@ -15107,13 +15107,13 @@
         <v>1.028713823074276</v>
       </c>
       <c r="I420">
-        <v>1.028713823074276</v>
+        <v>1.028713823074277</v>
       </c>
       <c r="J420">
         <v>-0.2950819672131147</v>
       </c>
       <c r="K420">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:11">
@@ -15142,13 +15142,13 @@
         <v>-0.3680216471594661</v>
       </c>
       <c r="I421">
-        <v>-0.3680216471594661</v>
+        <v>-0.3680216471594662</v>
       </c>
       <c r="J421">
         <v>-0.2622950819672131</v>
       </c>
       <c r="K421">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:11">
@@ -15177,13 +15177,13 @@
         <v>0.8597233762472329</v>
       </c>
       <c r="I422">
-        <v>0.8597233762472325</v>
+        <v>0.8597233762472327</v>
       </c>
       <c r="J422">
         <v>-0.2622950819672131</v>
       </c>
       <c r="K422">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:11">
@@ -15218,7 +15218,7 @@
         <v>-0.2622950819672131</v>
       </c>
       <c r="K423">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:11">
@@ -15247,13 +15247,13 @@
         <v>-0.3725104354304732</v>
       </c>
       <c r="I424">
-        <v>-0.3725104354304734</v>
+        <v>-0.3725104354304735</v>
       </c>
       <c r="J424">
         <v>-0.2622950819672131</v>
       </c>
       <c r="K424">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:11">
@@ -15282,13 +15282,13 @@
         <v>-0.6029507069964439</v>
       </c>
       <c r="I425">
-        <v>-0.602950706996444</v>
+        <v>-0.6029507069964442</v>
       </c>
       <c r="J425">
         <v>0.5245901639344263</v>
       </c>
       <c r="K425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:11">
@@ -15317,13 +15317,13 @@
         <v>0.04976295839151177</v>
       </c>
       <c r="I426">
-        <v>0.04976295839151144</v>
+        <v>0.04976295839151146</v>
       </c>
       <c r="J426">
         <v>0.5245901639344263</v>
       </c>
       <c r="K426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:11">
@@ -15358,7 +15358,7 @@
         <v>0.5245901639344263</v>
       </c>
       <c r="K427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:11">
@@ -15387,13 +15387,13 @@
         <v>-0.5906936357603439</v>
       </c>
       <c r="I428">
-        <v>-0.5906936357603441</v>
+        <v>-0.5906936357603442</v>
       </c>
       <c r="J428">
         <v>0.5245901639344263</v>
       </c>
       <c r="K428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:11">
@@ -15422,13 +15422,13 @@
         <v>0.6875378589137593</v>
       </c>
       <c r="I429">
-        <v>0.6875378589137594</v>
+        <v>0.6875378589137595</v>
       </c>
       <c r="J429">
         <v>-0.4808743169398907</v>
       </c>
       <c r="K429">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:11">
@@ -15463,7 +15463,7 @@
         <v>-0.4808743169398907</v>
       </c>
       <c r="K430">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:11">
@@ -15498,7 +15498,7 @@
         <v>-0.4808743169398907</v>
       </c>
       <c r="K431">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:11">
@@ -15527,13 +15527,13 @@
         <v>0.8578640372832529</v>
       </c>
       <c r="I432">
-        <v>0.8578640372832531</v>
+        <v>0.8578640372832533</v>
       </c>
       <c r="J432">
         <v>-0.4808743169398907</v>
       </c>
       <c r="K432">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:11">
@@ -15562,13 +15562,13 @@
         <v>1.428422931154018</v>
       </c>
       <c r="I433">
-        <v>1.428422931154018</v>
+        <v>1.428422931154019</v>
       </c>
       <c r="J433">
         <v>3.256830601092896</v>
       </c>
       <c r="K433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:11">
@@ -15603,7 +15603,7 @@
         <v>3.256830601092896</v>
       </c>
       <c r="K434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:11">
@@ -15632,13 +15632,13 @@
         <v>-0.05109527497902323</v>
       </c>
       <c r="I435">
-        <v>-0.05109527497902333</v>
+        <v>-0.05109527497902334</v>
       </c>
       <c r="J435">
         <v>3.256830601092896</v>
       </c>
       <c r="K435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:11">
@@ -15673,7 +15673,7 @@
         <v>3.256830601092896</v>
       </c>
       <c r="K436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:11">
@@ -15708,7 +15708,7 @@
         <v>0.3934426229508197</v>
       </c>
       <c r="K437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:11">
@@ -15743,7 +15743,7 @@
         <v>0.3934426229508197</v>
       </c>
       <c r="K438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:11">
@@ -15778,7 +15778,7 @@
         <v>0.3934426229508197</v>
       </c>
       <c r="K439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:11">
@@ -15807,13 +15807,13 @@
         <v>0.8104618402468229</v>
       </c>
       <c r="I440">
-        <v>0.8104618402468224</v>
+        <v>0.8104618402468226</v>
       </c>
       <c r="J440">
         <v>0.3934426229508197</v>
       </c>
       <c r="K440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:11">
@@ -15848,7 +15848,7 @@
         <v>-0.6775956284153005</v>
       </c>
       <c r="K441">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:11">
@@ -15877,13 +15877,13 @@
         <v>-0.4304956764852229</v>
       </c>
       <c r="I442">
-        <v>-0.430495676485223</v>
+        <v>-0.4304956764852231</v>
       </c>
       <c r="J442">
         <v>-0.6775956284153005</v>
       </c>
       <c r="K442">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:11">
@@ -15912,13 +15912,13 @@
         <v>0.9346645248129608</v>
       </c>
       <c r="I443">
-        <v>0.934664524812961</v>
+        <v>0.9346645248129611</v>
       </c>
       <c r="J443">
         <v>-0.6775956284153005</v>
       </c>
       <c r="K443">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:11">
@@ -15953,7 +15953,7 @@
         <v>-0.6775956284153005</v>
       </c>
       <c r="K444">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:11">
@@ -15982,13 +15982,13 @@
         <v>-0.4070356368126306</v>
       </c>
       <c r="I445">
-        <v>-0.4070356368126307</v>
+        <v>-0.4070356368126308</v>
       </c>
       <c r="J445">
         <v>-0.1092896174863388</v>
       </c>
       <c r="K445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:11">
@@ -16017,13 +16017,13 @@
         <v>-0.360787883647202</v>
       </c>
       <c r="I446">
-        <v>-0.360787883647202</v>
+        <v>-0.3607878836472022</v>
       </c>
       <c r="J446">
         <v>-0.1092896174863388</v>
       </c>
       <c r="K446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:11">
@@ -16052,13 +16052,13 @@
         <v>0.4212061763519802</v>
       </c>
       <c r="I447">
-        <v>0.4212061763519797</v>
+        <v>0.4212061763519798</v>
       </c>
       <c r="J447">
         <v>-0.1092896174863388</v>
       </c>
       <c r="K447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:11">
@@ -16093,7 +16093,7 @@
         <v>-0.1092896174863388</v>
       </c>
       <c r="K448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:11">
@@ -16128,7 +16128,7 @@
         <v>-0.3278688524590164</v>
       </c>
       <c r="K449">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:11">
@@ -16157,13 +16157,13 @@
         <v>0.4764979386375383</v>
       </c>
       <c r="I450">
-        <v>0.4764979386375384</v>
+        <v>0.4764979386375385</v>
       </c>
       <c r="J450">
         <v>-0.3278688524590164</v>
       </c>
       <c r="K450">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:11">
@@ -16192,13 +16192,13 @@
         <v>0.1956483992412377</v>
       </c>
       <c r="I451">
-        <v>0.1956483992412378</v>
+        <v>0.1956483992412379</v>
       </c>
       <c r="J451">
         <v>-0.3278688524590164</v>
       </c>
       <c r="K451">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:11">
@@ -16227,13 +16227,13 @@
         <v>-0.4046688963049994</v>
       </c>
       <c r="I452">
-        <v>-0.4046688963049996</v>
+        <v>-0.4046688963049997</v>
       </c>
       <c r="J452">
         <v>-0.3278688524590164</v>
       </c>
       <c r="K452">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:11">
@@ -16262,13 +16262,13 @@
         <v>0.4373897618517164</v>
       </c>
       <c r="I453">
-        <v>0.4373897618517169</v>
+        <v>0.437389761851717</v>
       </c>
       <c r="J453">
         <v>-0.2185792349726776</v>
       </c>
       <c r="K453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:11">
@@ -16303,7 +16303,7 @@
         <v>-0.2185792349726776</v>
       </c>
       <c r="K454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:11">
@@ -16338,7 +16338,7 @@
         <v>-0.2185792349726776</v>
       </c>
       <c r="K455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:11">
@@ -16367,13 +16367,13 @@
         <v>-0.4156470496605077</v>
       </c>
       <c r="I456">
-        <v>-0.4156470496605079</v>
+        <v>-0.415647049660508</v>
       </c>
       <c r="J456">
         <v>-0.2185792349726776</v>
       </c>
       <c r="K456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:11">
@@ -16408,7 +16408,7 @@
         <v>-0.1311475409836066</v>
       </c>
       <c r="K457">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:11">
@@ -16437,13 +16437,13 @@
         <v>-0.4993810056639545</v>
       </c>
       <c r="I458">
-        <v>-0.4993810056639547</v>
+        <v>-0.4993810056639548</v>
       </c>
       <c r="J458">
         <v>-0.1311475409836066</v>
       </c>
       <c r="K458">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:11">
@@ -16472,13 +16472,13 @@
         <v>-0.4917217507712165</v>
       </c>
       <c r="I459">
-        <v>-0.4917217507712165</v>
+        <v>-0.4917217507712166</v>
       </c>
       <c r="J459">
         <v>-0.1311475409836066</v>
       </c>
       <c r="K459">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:11">
@@ -16507,13 +16507,13 @@
         <v>0.4634788675523107</v>
       </c>
       <c r="I460">
-        <v>0.4634788675523113</v>
+        <v>0.4634788675523114</v>
       </c>
       <c r="J460">
         <v>-0.1311475409836066</v>
       </c>
       <c r="K460">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:11">
@@ -16542,13 +16542,13 @@
         <v>-0.5046971179310126</v>
       </c>
       <c r="I461">
-        <v>-0.5046971179310127</v>
+        <v>-0.5046971179310128</v>
       </c>
       <c r="J461">
         <v>-0.1530054644808743</v>
       </c>
       <c r="K461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:11">
@@ -16577,13 +16577,13 @@
         <v>0.7568990341111266</v>
       </c>
       <c r="I462">
-        <v>0.7568990341111265</v>
+        <v>0.7568990341111266</v>
       </c>
       <c r="J462">
         <v>-0.1530054644808743</v>
       </c>
       <c r="K462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:11">
@@ -16612,13 +16612,13 @@
         <v>0.3179884200845891</v>
       </c>
       <c r="I463">
-        <v>0.3179884200845893</v>
+        <v>0.3179884200845894</v>
       </c>
       <c r="J463">
         <v>-0.1530054644808743</v>
       </c>
       <c r="K463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:11">
@@ -16647,13 +16647,13 @@
         <v>-0.5144576085119755</v>
       </c>
       <c r="I464">
-        <v>-0.5144576085119756</v>
+        <v>-0.5144576085119758</v>
       </c>
       <c r="J464">
         <v>-0.1530054644808743</v>
       </c>
       <c r="K464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:11">
@@ -16688,7 +16688,7 @@
         <v>-0.4153005464480874</v>
       </c>
       <c r="K465">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:11">
@@ -16717,13 +16717,13 @@
         <v>-0.5203244121168545</v>
       </c>
       <c r="I466">
-        <v>-0.5203244121168548</v>
+        <v>-0.5203244121168549</v>
       </c>
       <c r="J466">
         <v>-0.4153005464480874</v>
       </c>
       <c r="K466">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:11">
@@ -16752,13 +16752,13 @@
         <v>-0.4850741813179452</v>
       </c>
       <c r="I467">
-        <v>-0.4850741813179453</v>
+        <v>-0.4850741813179454</v>
       </c>
       <c r="J467">
         <v>-0.4153005464480874</v>
       </c>
       <c r="K467">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:11">
@@ -16793,7 +16793,7 @@
         <v>-0.4153005464480874</v>
       </c>
       <c r="K468">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:11">
@@ -16822,13 +16822,13 @@
         <v>0.415190000630778</v>
       </c>
       <c r="I469">
-        <v>0.415190000630778</v>
+        <v>0.4151900006307781</v>
       </c>
       <c r="J469">
         <v>2.032786885245902</v>
       </c>
       <c r="K469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:11">
@@ -16857,13 +16857,13 @@
         <v>-0.3772554589313565</v>
       </c>
       <c r="I470">
-        <v>-0.3772554589313566</v>
+        <v>-0.3772554589313567</v>
       </c>
       <c r="J470">
         <v>2.032786885245902</v>
       </c>
       <c r="K470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:11">
@@ -16892,13 +16892,13 @@
         <v>0.6796785861372934</v>
       </c>
       <c r="I471">
-        <v>0.6796785861372934</v>
+        <v>0.6796785861372935</v>
       </c>
       <c r="J471">
         <v>2.032786885245902</v>
       </c>
       <c r="K471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:11">
@@ -16927,13 +16927,13 @@
         <v>-0.4463584813129098</v>
       </c>
       <c r="I472">
-        <v>-0.4463584813129101</v>
+        <v>-0.4463584813129102</v>
       </c>
       <c r="J472">
         <v>2.032786885245902</v>
       </c>
       <c r="K472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:11">
@@ -16962,13 +16962,13 @@
         <v>0.5589967309042045</v>
       </c>
       <c r="I473">
-        <v>0.5589967309042042</v>
+        <v>0.5589967309042043</v>
       </c>
       <c r="J473">
         <v>2.295081967213115</v>
       </c>
       <c r="K473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:11">
@@ -16997,13 +16997,13 @@
         <v>0.3126116582572152</v>
       </c>
       <c r="I474">
-        <v>0.3126116582572156</v>
+        <v>0.3126116582572157</v>
       </c>
       <c r="J474">
         <v>2.295081967213115</v>
       </c>
       <c r="K474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:11">
@@ -17038,7 +17038,7 @@
         <v>2.295081967213115</v>
       </c>
       <c r="K475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:11">
@@ -17067,13 +17067,13 @@
         <v>-0.5147874948965199</v>
       </c>
       <c r="I476">
-        <v>-0.5147874948965201</v>
+        <v>-0.5147874948965202</v>
       </c>
       <c r="J476">
         <v>2.295081967213115</v>
       </c>
       <c r="K476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:11">
@@ -17102,13 +17102,13 @@
         <v>0.7462731663466355</v>
       </c>
       <c r="I477">
-        <v>0.746273166346635</v>
+        <v>0.7462731663466351</v>
       </c>
       <c r="J477">
         <v>3.081967213114754</v>
       </c>
       <c r="K477">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:11">
@@ -17137,13 +17137,13 @@
         <v>0.5079337942519346</v>
       </c>
       <c r="I478">
-        <v>0.5079337942519344</v>
+        <v>0.5079337942519345</v>
       </c>
       <c r="J478">
         <v>3.081967213114754</v>
       </c>
       <c r="K478">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:11">
@@ -17172,13 +17172,13 @@
         <v>-0.2404962657868378</v>
       </c>
       <c r="I479">
-        <v>-0.2404962657868378</v>
+        <v>-0.2404962657868379</v>
       </c>
       <c r="J479">
         <v>-0.2622950819672131</v>
       </c>
       <c r="K479">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:11">
@@ -17207,13 +17207,13 @@
         <v>-0.2660163394732439</v>
       </c>
       <c r="I480">
-        <v>-0.2660163394732442</v>
+        <v>-0.2660163394732443</v>
       </c>
       <c r="J480">
         <v>-0.2622950819672131</v>
       </c>
       <c r="K480">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:11">
@@ -17248,7 +17248,7 @@
         <v>-0.2622950819672131</v>
       </c>
       <c r="K481">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:11">
@@ -17277,13 +17277,13 @@
         <v>1.774962309076395</v>
       </c>
       <c r="I482">
-        <v>1.774962309076396</v>
+        <v>1.774962309076397</v>
       </c>
       <c r="J482">
         <v>-0.2622950819672131</v>
       </c>
       <c r="K482">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:11">
@@ -17312,13 +17312,13 @@
         <v>0.4110815770056536</v>
       </c>
       <c r="I483">
-        <v>0.4110815770056534</v>
+        <v>0.4110815770056535</v>
       </c>
       <c r="J483">
         <v>-0.4371584699453552</v>
       </c>
       <c r="K483">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:11">
@@ -17347,13 +17347,13 @@
         <v>0.505522721388086</v>
       </c>
       <c r="I484">
-        <v>0.5055227213880866</v>
+        <v>0.5055227213880867</v>
       </c>
       <c r="J484">
         <v>-0.4371584699453552</v>
       </c>
       <c r="K484">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:11">
@@ -17382,13 +17382,13 @@
         <v>-0.392736387518805</v>
       </c>
       <c r="I485">
-        <v>-0.3927363875188051</v>
+        <v>-0.3927363875188052</v>
       </c>
       <c r="J485">
         <v>-0.4371584699453552</v>
       </c>
       <c r="K485">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:11">
@@ -17417,13 +17417,13 @@
         <v>-0.4824012547031997</v>
       </c>
       <c r="I486">
-        <v>-0.4824012547031999</v>
+        <v>-0.4824012547032</v>
       </c>
       <c r="J486">
         <v>-0.4371584699453552</v>
       </c>
       <c r="K486">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:11">
@@ -17452,13 +17452,13 @@
         <v>-0.4940396810494463</v>
       </c>
       <c r="I487">
-        <v>-0.4940396810494464</v>
+        <v>-0.4940396810494465</v>
       </c>
       <c r="J487">
         <v>-0.6120218579234973</v>
       </c>
       <c r="K487">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:11">
@@ -17487,13 +17487,13 @@
         <v>-0.3849287659180149</v>
       </c>
       <c r="I488">
-        <v>-0.3849287659180151</v>
+        <v>-0.3849287659180152</v>
       </c>
       <c r="J488">
         <v>-0.6120218579234973</v>
       </c>
       <c r="K488">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:11">
@@ -17528,7 +17528,7 @@
         <v>-0.6120218579234973</v>
       </c>
       <c r="K489">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:11">
@@ -17557,13 +17557,13 @@
         <v>0.6310286006721848</v>
       </c>
       <c r="I490">
-        <v>0.6310286006721855</v>
+        <v>0.6310286006721856</v>
       </c>
       <c r="J490">
         <v>-0.6120218579234973</v>
       </c>
       <c r="K490">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:11">
@@ -17592,13 +17592,13 @@
         <v>0.0987220031536193</v>
       </c>
       <c r="I491">
-        <v>0.09872200315361891</v>
+        <v>0.09872200315361894</v>
       </c>
       <c r="J491">
         <v>0.1967213114754098</v>
       </c>
       <c r="K491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:11">
@@ -17627,13 +17627,13 @@
         <v>-0.4477314339147208</v>
       </c>
       <c r="I492">
-        <v>-0.447731433914721</v>
+        <v>-0.4477314339147211</v>
       </c>
       <c r="J492">
         <v>0.1967213114754098</v>
       </c>
       <c r="K492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:11">
@@ -17662,13 +17662,13 @@
         <v>-0.06771382988114254</v>
       </c>
       <c r="I493">
-        <v>-0.06771382988114326</v>
+        <v>-0.06771382988114327</v>
       </c>
       <c r="J493">
         <v>0.1967213114754098</v>
       </c>
       <c r="K493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:11">
@@ -17697,13 +17697,13 @@
         <v>-0.4128550825460549</v>
       </c>
       <c r="I494">
-        <v>-0.4128550825460551</v>
+        <v>-0.4128550825460552</v>
       </c>
       <c r="J494">
         <v>0.1967213114754098</v>
       </c>
       <c r="K494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:11">
@@ -17738,7 +17738,7 @@
         <v>-0.04371584699453552</v>
       </c>
       <c r="K495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:11">
@@ -17767,13 +17767,13 @@
         <v>-0.5395356567240309</v>
       </c>
       <c r="I496">
-        <v>-0.539535656724031</v>
+        <v>-0.5395356567240311</v>
       </c>
       <c r="J496">
         <v>-0.04371584699453552</v>
       </c>
       <c r="K496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:11">
@@ -17802,13 +17802,13 @@
         <v>-0.5330006335034839</v>
       </c>
       <c r="I497">
-        <v>-0.533000633503484</v>
+        <v>-0.5330006335034841</v>
       </c>
       <c r="J497">
         <v>-0.04371584699453552</v>
       </c>
       <c r="K497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:11">
@@ -17843,7 +17843,7 @@
         <v>-0.04371584699453552</v>
       </c>
       <c r="K498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:11">
@@ -17872,13 +17872,13 @@
         <v>-0.5080055124291144</v>
       </c>
       <c r="I499">
-        <v>-0.5080055124291145</v>
+        <v>-0.5080055124291146</v>
       </c>
       <c r="J499">
         <v>0.9836065573770492</v>
       </c>
       <c r="K499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:11">
@@ -17907,13 +17907,13 @@
         <v>0.357887647937993</v>
       </c>
       <c r="I500">
-        <v>0.3578876479379927</v>
+        <v>0.3578876479379928</v>
       </c>
       <c r="J500">
         <v>0.9836065573770492</v>
       </c>
       <c r="K500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:11">
@@ -17948,7 +17948,7 @@
         <v>0.9836065573770492</v>
       </c>
       <c r="K501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:11">
@@ -17977,13 +17977,13 @@
         <v>-0.3495210724748086</v>
       </c>
       <c r="I502">
-        <v>-0.3495210724748085</v>
+        <v>-0.3495210724748086</v>
       </c>
       <c r="J502">
         <v>0.9836065573770492</v>
       </c>
       <c r="K502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:11">
@@ -18018,7 +18018,7 @@
         <v>-0.6338797814207651</v>
       </c>
       <c r="K503">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:11">
@@ -18053,7 +18053,7 @@
         <v>-0.6338797814207651</v>
       </c>
       <c r="K504">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:11">
@@ -18088,7 +18088,7 @@
         <v>-0.6338797814207651</v>
       </c>
       <c r="K505">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:11">
@@ -18117,13 +18117,13 @@
         <v>-0.5118616324694824</v>
       </c>
       <c r="I506">
-        <v>-0.5118616324694826</v>
+        <v>-0.5118616324694827</v>
       </c>
       <c r="J506">
         <v>-0.6338797814207651</v>
       </c>
       <c r="K506">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:11">
@@ -18152,13 +18152,13 @@
         <v>0.1696361481737648</v>
       </c>
       <c r="I507">
-        <v>0.169636148173765</v>
+        <v>0.1696361481737651</v>
       </c>
       <c r="J507">
         <v>0.1967213114754098</v>
       </c>
       <c r="K507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:11">
@@ -18187,13 +18187,13 @@
         <v>0.09675339480432781</v>
       </c>
       <c r="I508">
-        <v>0.09675339480432814</v>
+        <v>0.09675339480432817</v>
       </c>
       <c r="J508">
         <v>0.1967213114754098</v>
       </c>
       <c r="K508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:11">
@@ -18222,13 +18222,13 @@
         <v>-0.5048601981757758</v>
       </c>
       <c r="I509">
-        <v>-0.504860198175776</v>
+        <v>-0.5048601981757761</v>
       </c>
       <c r="J509">
         <v>0.1967213114754098</v>
       </c>
       <c r="K509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:11">
@@ -18257,13 +18257,13 @@
         <v>-0.5075762143533121</v>
       </c>
       <c r="I510">
-        <v>-0.5075762143533122</v>
+        <v>-0.5075762143533123</v>
       </c>
       <c r="J510">
         <v>0.1967213114754098</v>
       </c>
       <c r="K510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:11">
@@ -18292,13 +18292,13 @@
         <v>0.6795383472172544</v>
       </c>
       <c r="I511">
-        <v>0.679538347217255</v>
+        <v>0.6795383472172551</v>
       </c>
       <c r="J511">
         <v>5.049180327868853</v>
       </c>
       <c r="K511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:11">
@@ -18327,13 +18327,13 @@
         <v>-0.3328749125332214</v>
       </c>
       <c r="I512">
-        <v>-0.3328749125332215</v>
+        <v>-0.3328749125332216</v>
       </c>
       <c r="J512">
         <v>5.049180327868853</v>
       </c>
       <c r="K512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:11">
@@ -18362,13 +18362,13 @@
         <v>0.4290484528230598</v>
       </c>
       <c r="I513">
-        <v>0.4290484528230602</v>
+        <v>0.4290484528230603</v>
       </c>
       <c r="J513">
         <v>5.049180327868853</v>
       </c>
       <c r="K513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:11">
@@ -18403,7 +18403,7 @@
         <v>5.049180327868853</v>
       </c>
       <c r="K514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:11">
@@ -18432,13 +18432,13 @@
         <v>-0.1625176107395255</v>
       </c>
       <c r="I515">
-        <v>-0.1625176107395257</v>
+        <v>-0.1625176107395258</v>
       </c>
       <c r="J515">
         <v>0.6557377049180327</v>
       </c>
       <c r="K515">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:11">
@@ -18467,13 +18467,13 @@
         <v>1.330558925464925</v>
       </c>
       <c r="I516">
-        <v>1.330558925464925</v>
+        <v>1.330558925464926</v>
       </c>
       <c r="J516">
         <v>0.6557377049180327</v>
       </c>
       <c r="K516">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:11">
@@ -18502,13 +18502,13 @@
         <v>1.222736112890604</v>
       </c>
       <c r="I517">
-        <v>1.222736112890605</v>
+        <v>1.222736112890606</v>
       </c>
       <c r="J517">
         <v>0.6557377049180327</v>
       </c>
       <c r="K517">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:11">
@@ -18537,13 +18537,13 @@
         <v>0.09821065333124886</v>
       </c>
       <c r="I518">
-        <v>0.09821065333124838</v>
+        <v>0.09821065333124841</v>
       </c>
       <c r="J518">
         <v>0.6557377049180327</v>
       </c>
       <c r="K518">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:11">
@@ -18578,7 +18578,7 @@
         <v>1.114754098360656</v>
       </c>
       <c r="K519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:11">
@@ -18613,7 +18613,7 @@
         <v>1.114754098360656</v>
       </c>
       <c r="K520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:11">
@@ -18642,13 +18642,13 @@
         <v>0.900990910438517</v>
       </c>
       <c r="I521">
-        <v>0.9009909104385171</v>
+        <v>0.9009909104385172</v>
       </c>
       <c r="J521">
         <v>1.114754098360656</v>
       </c>
       <c r="K521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:11">
@@ -18683,7 +18683,7 @@
         <v>1.114754098360656</v>
       </c>
       <c r="K522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:11">
@@ -18712,13 +18712,13 @@
         <v>0.8430880605628303</v>
       </c>
       <c r="I523">
-        <v>0.8430880605628299</v>
+        <v>0.84308806056283</v>
       </c>
       <c r="J523">
         <v>0.6557377049180327</v>
       </c>
       <c r="K523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:11">
@@ -18753,7 +18753,7 @@
         <v>0.6557377049180327</v>
       </c>
       <c r="K524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:11">
@@ -18782,13 +18782,13 @@
         <v>-0.3066442627524346</v>
       </c>
       <c r="I525">
-        <v>-0.3066442627524347</v>
+        <v>-0.3066442627524348</v>
       </c>
       <c r="J525">
         <v>0.6557377049180327</v>
       </c>
       <c r="K525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:11">
@@ -18823,7 +18823,7 @@
         <v>-0.4371584699453552</v>
       </c>
       <c r="K526">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:11">
@@ -18852,13 +18852,13 @@
         <v>0.7427121571385312</v>
       </c>
       <c r="I527">
-        <v>0.7427121571385312</v>
+        <v>0.7427121571385313</v>
       </c>
       <c r="J527">
         <v>-0.4371584699453552</v>
       </c>
       <c r="K527">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:11">
@@ -18893,7 +18893,7 @@
         <v>-0.4371584699453552</v>
       </c>
       <c r="K528">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:11">
@@ -18922,13 +18922,13 @@
         <v>0.1226771838597515</v>
       </c>
       <c r="I529">
-        <v>0.1226771838597509</v>
+        <v>0.122677183859751</v>
       </c>
       <c r="J529">
         <v>-0.4371584699453552</v>
       </c>
       <c r="K529">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:11">
@@ -18957,13 +18957,13 @@
         <v>-0.4958193311946986</v>
       </c>
       <c r="I530">
-        <v>-0.495819331194699</v>
+        <v>-0.4958193311946991</v>
       </c>
       <c r="J530">
         <v>0.04371584699453552</v>
       </c>
       <c r="K530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:11">
@@ -18998,7 +18998,7 @@
         <v>0.04371584699453552</v>
       </c>
       <c r="K531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:11">
@@ -19027,13 +19027,13 @@
         <v>-0.4321963237808453</v>
       </c>
       <c r="I532">
-        <v>-0.4321963237808454</v>
+        <v>-0.4321963237808455</v>
       </c>
       <c r="J532">
         <v>0.04371584699453552</v>
       </c>
       <c r="K532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:11">
@@ -19068,7 +19068,7 @@
         <v>0.04371584699453552</v>
       </c>
       <c r="K533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:11">
@@ -19097,13 +19097,13 @@
         <v>-0.554579968742329</v>
       </c>
       <c r="I534">
-        <v>-0.5545799687423293</v>
+        <v>-0.5545799687423294</v>
       </c>
       <c r="J534">
         <v>0.02185792349726776</v>
       </c>
       <c r="K534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:11">
@@ -19132,13 +19132,13 @@
         <v>0.3639077343126605</v>
       </c>
       <c r="I535">
-        <v>0.3639077343126607</v>
+        <v>0.3639077343126608</v>
       </c>
       <c r="J535">
         <v>0.02185792349726776</v>
       </c>
       <c r="K535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:11">
@@ -19167,13 +19167,13 @@
         <v>-0.512311083593591</v>
       </c>
       <c r="I536">
-        <v>-0.5123110835935911</v>
+        <v>-0.5123110835935912</v>
       </c>
       <c r="J536">
         <v>0.02185792349726776</v>
       </c>
       <c r="K536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:11">
@@ -19208,7 +19208,7 @@
         <v>0.02185792349726776</v>
       </c>
       <c r="K537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:11">
@@ -19237,13 +19237,13 @@
         <v>-0.5288436556990139</v>
       </c>
       <c r="I538">
-        <v>-0.5288436556990141</v>
+        <v>-0.5288436556990143</v>
       </c>
       <c r="J538">
         <v>0.4918032786885246</v>
       </c>
       <c r="K538">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:11">
@@ -19272,13 +19272,13 @@
         <v>0.8207299751903629</v>
       </c>
       <c r="I539">
-        <v>0.8207299751903634</v>
+        <v>0.8207299751903636</v>
       </c>
       <c r="J539">
         <v>0.4918032786885246</v>
       </c>
       <c r="K539">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:11">
@@ -19313,7 +19313,7 @@
         <v>0.4918032786885246</v>
       </c>
       <c r="K540">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:11">
@@ -19342,13 +19342,13 @@
         <v>-0.4562907073170618</v>
       </c>
       <c r="I541">
-        <v>-0.456290707317062</v>
+        <v>-0.4562907073170621</v>
       </c>
       <c r="J541">
         <v>0.4918032786885246</v>
       </c>
       <c r="K541">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:11">
@@ -19377,13 +19377,13 @@
         <v>0.5812572161763272</v>
       </c>
       <c r="I542">
-        <v>0.5812572161763266</v>
+        <v>0.5812572161763269</v>
       </c>
       <c r="J542">
         <v>-0.06557377049180328</v>
       </c>
       <c r="K542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:11">
@@ -19412,13 +19412,13 @@
         <v>0.2617670206423016</v>
       </c>
       <c r="I543">
-        <v>0.261767020642301</v>
+        <v>0.2617670206423011</v>
       </c>
       <c r="J543">
         <v>-0.06557377049180328</v>
       </c>
       <c r="K543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:11">
@@ -19447,13 +19447,13 @@
         <v>-0.2800954675058048</v>
       </c>
       <c r="I544">
-        <v>-0.2800954675058048</v>
+        <v>-0.2800954675058049</v>
       </c>
       <c r="J544">
         <v>-0.06557377049180328</v>
       </c>
       <c r="K544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:11">
@@ -19482,13 +19482,13 @@
         <v>-0.1042455266000251</v>
       </c>
       <c r="I545">
-        <v>-0.1042455266000252</v>
+        <v>-0.1042455266000253</v>
       </c>
       <c r="J545">
         <v>-0.06557377049180328</v>
       </c>
       <c r="K545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:11">
@@ -19523,7 +19523,7 @@
         <v>0.2622950819672131</v>
       </c>
       <c r="K546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:11">
@@ -19552,13 +19552,13 @@
         <v>0.02840135534346902</v>
       </c>
       <c r="I547">
-        <v>0.02840135534346957</v>
+        <v>0.02840135534346958</v>
       </c>
       <c r="J547">
         <v>0.2622950819672131</v>
       </c>
       <c r="K547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:11">
@@ -19587,13 +19587,13 @@
         <v>0.4994602668097153</v>
       </c>
       <c r="I548">
-        <v>0.4994602668097148</v>
+        <v>0.4994602668097149</v>
       </c>
       <c r="J548">
         <v>0.2622950819672131</v>
       </c>
       <c r="K548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:11">
@@ -19622,13 +19622,13 @@
         <v>0.7561879900475221</v>
       </c>
       <c r="I549">
-        <v>0.7561879900475219</v>
+        <v>0.756187990047522</v>
       </c>
       <c r="J549">
         <v>0.2622950819672131</v>
       </c>
       <c r="K549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:11">
@@ -19663,7 +19663,7 @@
         <v>-0.07650273224043716</v>
       </c>
       <c r="K550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:11">
@@ -19692,13 +19692,13 @@
         <v>-0.4338486032791664</v>
       </c>
       <c r="I551">
-        <v>-0.4338486032791664</v>
+        <v>-0.4338486032791665</v>
       </c>
       <c r="J551">
         <v>-0.07650273224043716</v>
       </c>
       <c r="K551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:11">
@@ -19727,13 +19727,13 @@
         <v>0.9738548753930631</v>
       </c>
       <c r="I552">
-        <v>0.973854875393063</v>
+        <v>0.9738548753930631</v>
       </c>
       <c r="J552">
         <v>-0.07650273224043716</v>
       </c>
       <c r="K552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:11">
@@ -19762,13 +19762,13 @@
         <v>0.3134284716898523</v>
       </c>
       <c r="I553">
-        <v>0.3134284716898527</v>
+        <v>0.3134284716898528</v>
       </c>
       <c r="J553">
         <v>-0.07650273224043716</v>
       </c>
       <c r="K553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:11">
@@ -19797,13 +19797,13 @@
         <v>-0.4414493303705253</v>
       </c>
       <c r="I554">
-        <v>-0.4414493303705255</v>
+        <v>-0.4414493303705256</v>
       </c>
       <c r="J554">
         <v>-0.2513661202185792</v>
       </c>
       <c r="K554">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:11">
@@ -19838,7 +19838,7 @@
         <v>-0.2513661202185792</v>
       </c>
       <c r="K555">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:11">
@@ -19867,13 +19867,13 @@
         <v>-0.3691743073150718</v>
       </c>
       <c r="I556">
-        <v>-0.3691743073150721</v>
+        <v>-0.3691743073150722</v>
       </c>
       <c r="J556">
         <v>-0.2513661202185792</v>
       </c>
       <c r="K556">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:11">
@@ -19902,13 +19902,13 @@
         <v>0.6694791281715666</v>
       </c>
       <c r="I557">
-        <v>0.6694791281715672</v>
+        <v>0.6694791281715673</v>
       </c>
       <c r="J557">
         <v>-0.2513661202185792</v>
       </c>
       <c r="K557">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:11">
@@ -19943,7 +19943,7 @@
         <v>-0.4918032786885246</v>
       </c>
       <c r="K558">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:11">
@@ -19972,13 +19972,13 @@
         <v>-0.592024532371891</v>
       </c>
       <c r="I559">
-        <v>-0.5920245323718911</v>
+        <v>-0.5920245323718912</v>
       </c>
       <c r="J559">
         <v>-0.4918032786885246</v>
       </c>
       <c r="K559">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:11">
@@ -20007,13 +20007,13 @@
         <v>-0.6281212172406524</v>
       </c>
       <c r="I560">
-        <v>-0.6281212172406526</v>
+        <v>-0.6281212172406527</v>
       </c>
       <c r="J560">
         <v>-0.4918032786885246</v>
       </c>
       <c r="K560">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:11">
@@ -20042,13 +20042,13 @@
         <v>0.4129725471217353</v>
       </c>
       <c r="I561">
-        <v>0.4129725471217352</v>
+        <v>0.4129725471217353</v>
       </c>
       <c r="J561">
         <v>-0.4918032786885246</v>
       </c>
       <c r="K561">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:11">
@@ -20083,7 +20083,7 @@
         <v>-0.3497267759562842</v>
       </c>
       <c r="K562">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:11">
@@ -20118,7 +20118,7 @@
         <v>-0.3497267759562842</v>
       </c>
       <c r="K563">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:11">
@@ -20147,13 +20147,13 @@
         <v>-0.08620725427621644</v>
       </c>
       <c r="I564">
-        <v>-0.08620725427621674</v>
+        <v>-0.08620725427621675</v>
       </c>
       <c r="J564">
         <v>-0.3497267759562842</v>
       </c>
       <c r="K564">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:11">
@@ -20188,7 +20188,7 @@
         <v>-0.3497267759562842</v>
       </c>
       <c r="K565">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:11">
@@ -20217,13 +20217,13 @@
         <v>0.8568034611760075</v>
       </c>
       <c r="I566">
-        <v>0.8568034611760079</v>
+        <v>0.856803461176008</v>
       </c>
       <c r="J566">
         <v>5.114754098360656</v>
       </c>
       <c r="K566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:11">
@@ -20258,7 +20258,7 @@
         <v>5.114754098360656</v>
       </c>
       <c r="K567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:11">
@@ -20293,7 +20293,7 @@
         <v>5.114754098360656</v>
       </c>
       <c r="K568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:11">
@@ -20328,7 +20328,7 @@
         <v>5.114754098360656</v>
       </c>
       <c r="K569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:11">
@@ -20363,7 +20363,7 @@
         <v>0.4808743169398907</v>
       </c>
       <c r="K570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:11">
@@ -20392,13 +20392,13 @@
         <v>-0.04524716046218435</v>
       </c>
       <c r="I571">
-        <v>-0.04524716046218423</v>
+        <v>-0.04524716046218424</v>
       </c>
       <c r="J571">
         <v>0.4808743169398907</v>
       </c>
       <c r="K571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:11">
@@ -20433,7 +20433,7 @@
         <v>0.4808743169398907</v>
       </c>
       <c r="K572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:11">
@@ -20468,7 +20468,7 @@
         <v>0.4808743169398907</v>
       </c>
       <c r="K573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:11">
@@ -20503,7 +20503,7 @@
         <v>-0.2622950819672131</v>
       </c>
       <c r="K574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:11">
@@ -20532,13 +20532,13 @@
         <v>0.02007410476054984</v>
       </c>
       <c r="I575">
-        <v>0.02007410476054937</v>
+        <v>0.02007410476054938</v>
       </c>
       <c r="J575">
         <v>-0.2622950819672131</v>
       </c>
       <c r="K575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:11">
@@ -20573,7 +20573,7 @@
         <v>-0.2622950819672131</v>
       </c>
       <c r="K576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:11">
@@ -20602,13 +20602,13 @@
         <v>-0.4621744486843579</v>
       </c>
       <c r="I577">
-        <v>-0.462174448684358</v>
+        <v>-0.4621744486843581</v>
       </c>
       <c r="J577">
         <v>-0.2622950819672131</v>
       </c>
       <c r="K577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:11">
@@ -20643,7 +20643,7 @@
         <v>-0.2841530054644809</v>
       </c>
       <c r="K578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:11">
@@ -20672,13 +20672,13 @@
         <v>1.020960962195494</v>
       </c>
       <c r="I579">
-        <v>1.020960962195494</v>
+        <v>1.020960962195495</v>
       </c>
       <c r="J579">
         <v>-0.2841530054644809</v>
       </c>
       <c r="K579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:11">
@@ -20707,13 +20707,13 @@
         <v>-0.3836335383259823</v>
       </c>
       <c r="I580">
-        <v>-0.3836335383259826</v>
+        <v>-0.3836335383259827</v>
       </c>
       <c r="J580">
         <v>-0.2841530054644809</v>
       </c>
       <c r="K580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:11">
@@ -20742,13 +20742,13 @@
         <v>0.6059545960071538</v>
       </c>
       <c r="I581">
-        <v>0.6059545960071537</v>
+        <v>0.6059545960071538</v>
       </c>
       <c r="J581">
         <v>-0.2841530054644809</v>
       </c>
       <c r="K581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:11">
@@ -20783,7 +20783,7 @@
         <v>-0.360655737704918</v>
       </c>
       <c r="K582">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:11">
@@ -20812,13 +20812,13 @@
         <v>0.874462014691286</v>
       </c>
       <c r="I583">
-        <v>0.8744620146912863</v>
+        <v>0.8744620146912865</v>
       </c>
       <c r="J583">
         <v>-0.360655737704918</v>
       </c>
       <c r="K583">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:11">
@@ -20847,13 +20847,13 @@
         <v>-0.3658566937560478</v>
       </c>
       <c r="I584">
-        <v>-0.3658566937560477</v>
+        <v>-0.3658566937560478</v>
       </c>
       <c r="J584">
         <v>-0.360655737704918</v>
       </c>
       <c r="K584">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:11">
@@ -20882,13 +20882,13 @@
         <v>0.5887245805192756</v>
       </c>
       <c r="I585">
-        <v>0.5887245805192758</v>
+        <v>0.5887245805192759</v>
       </c>
       <c r="J585">
         <v>-0.360655737704918</v>
       </c>
       <c r="K585">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:11">
@@ -20917,13 +20917,13 @@
         <v>-0.4153182909070033</v>
       </c>
       <c r="I586">
-        <v>-0.4153182909070033</v>
+        <v>-0.4153182909070034</v>
       </c>
       <c r="J586">
         <v>0.1311475409836066</v>
       </c>
       <c r="K586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:11">
@@ -20958,7 +20958,7 @@
         <v>0.1311475409836066</v>
       </c>
       <c r="K587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:11">
@@ -20987,13 +20987,13 @@
         <v>0.6041703152167173</v>
       </c>
       <c r="I588">
-        <v>0.6041703152167174</v>
+        <v>0.6041703152167175</v>
       </c>
       <c r="J588">
         <v>0.1311475409836066</v>
       </c>
       <c r="K588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:11">
@@ -21022,13 +21022,13 @@
         <v>-0.1912341719637955</v>
       </c>
       <c r="I589">
-        <v>-0.1912341719637958</v>
+        <v>-0.1912341719637959</v>
       </c>
       <c r="J589">
         <v>0.1311475409836066</v>
       </c>
       <c r="K589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:11">
@@ -21063,7 +21063,7 @@
         <v>-0.4371584699453552</v>
       </c>
       <c r="K590">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:11">
@@ -21092,13 +21092,13 @@
         <v>-0.3466250092130512</v>
       </c>
       <c r="I591">
-        <v>-0.3466250092130515</v>
+        <v>-0.3466250092130516</v>
       </c>
       <c r="J591">
         <v>-0.4371584699453552</v>
       </c>
       <c r="K591">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:11">
@@ -21127,13 +21127,13 @@
         <v>0.6634825306271782</v>
       </c>
       <c r="I592">
-        <v>0.6634825306271787</v>
+        <v>0.6634825306271788</v>
       </c>
       <c r="J592">
         <v>-0.4371584699453552</v>
       </c>
       <c r="K592">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:11">
@@ -21168,7 +21168,7 @@
         <v>-0.4371584699453552</v>
       </c>
       <c r="K593">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:11">
@@ -21197,13 +21197,13 @@
         <v>-0.09706517763154936</v>
       </c>
       <c r="I594">
-        <v>-0.09706517763154932</v>
+        <v>-0.09706517763154934</v>
       </c>
       <c r="J594">
         <v>-0.546448087431694</v>
       </c>
       <c r="K594">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:11">
@@ -21232,13 +21232,13 @@
         <v>0.3322867756239503</v>
       </c>
       <c r="I595">
-        <v>0.3322867756239509</v>
+        <v>0.332286775623951</v>
       </c>
       <c r="J595">
         <v>-0.546448087431694</v>
       </c>
       <c r="K595">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:11">
@@ -21267,13 +21267,13 @@
         <v>0.9543916736706937</v>
       </c>
       <c r="I596">
-        <v>0.9543916736706938</v>
+        <v>0.9543916736706939</v>
       </c>
       <c r="J596">
         <v>-0.546448087431694</v>
       </c>
       <c r="K596">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:11">
@@ -21308,7 +21308,7 @@
         <v>-0.546448087431694</v>
       </c>
       <c r="K597">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:11">
@@ -21337,13 +21337,13 @@
         <v>-0.5070514518216044</v>
       </c>
       <c r="I598">
-        <v>-0.5070514518216045</v>
+        <v>-0.5070514518216046</v>
       </c>
       <c r="J598">
         <v>10.29508196721311</v>
       </c>
       <c r="K598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:11">
@@ -21372,13 +21372,13 @@
         <v>0.6563358309544726</v>
       </c>
       <c r="I599">
-        <v>0.6563358309544721</v>
+        <v>0.6563358309544722</v>
       </c>
       <c r="J599">
         <v>10.29508196721311</v>
       </c>
       <c r="K599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:11">
@@ -21407,13 +21407,13 @@
         <v>-0.533503745590184</v>
       </c>
       <c r="I600">
-        <v>-0.5335037455901841</v>
+        <v>-0.5335037455901842</v>
       </c>
       <c r="J600">
         <v>10.29508196721311</v>
       </c>
       <c r="K600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:11">
@@ -21442,13 +21442,13 @@
         <v>0.6083636953203949</v>
       </c>
       <c r="I601">
-        <v>0.6083636953203945</v>
+        <v>0.6083636953203946</v>
       </c>
       <c r="J601">
         <v>10.29508196721311</v>
       </c>
       <c r="K601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:11">
@@ -21477,13 +21477,13 @@
         <v>-0.2828485134396219</v>
       </c>
       <c r="I602">
-        <v>-0.2828485134396219</v>
+        <v>-0.282848513439622</v>
       </c>
       <c r="J602">
         <v>0.3497267759562842</v>
       </c>
       <c r="K602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:11">
@@ -21512,13 +21512,13 @@
         <v>-0.3517879251079572</v>
       </c>
       <c r="I603">
-        <v>-0.3517879251079573</v>
+        <v>-0.3517879251079574</v>
       </c>
       <c r="J603">
         <v>0.3497267759562842</v>
       </c>
       <c r="K603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:11">
@@ -21547,13 +21547,13 @@
         <v>2.043976255258808</v>
       </c>
       <c r="I604">
-        <v>2.043976255258808</v>
+        <v>2.043976255258809</v>
       </c>
       <c r="J604">
         <v>0.3497267759562842</v>
       </c>
       <c r="K604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:11">
@@ -21588,7 +21588,7 @@
         <v>0.3497267759562842</v>
       </c>
       <c r="K605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:11">
@@ -21617,13 +21617,13 @@
         <v>-0.540239211843153</v>
       </c>
       <c r="I606">
-        <v>-0.5402392118431532</v>
+        <v>-0.5402392118431533</v>
       </c>
       <c r="J606">
         <v>0.3934426229508197</v>
       </c>
       <c r="K606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:11">
@@ -21652,13 +21652,13 @@
         <v>0.7138964717809094</v>
       </c>
       <c r="I607">
-        <v>0.7138964717809092</v>
+        <v>0.7138964717809094</v>
       </c>
       <c r="J607">
         <v>0.3934426229508197</v>
       </c>
       <c r="K607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:11">
@@ -21687,13 +21687,13 @@
         <v>0.7342662917706164</v>
       </c>
       <c r="I608">
-        <v>0.7342662917706161</v>
+        <v>0.7342662917706162</v>
       </c>
       <c r="J608">
         <v>0.3934426229508197</v>
       </c>
       <c r="K608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:11">
@@ -21728,7 +21728,7 @@
         <v>0.3934426229508197</v>
       </c>
       <c r="K609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:11">
@@ -21757,13 +21757,13 @@
         <v>0.5877948624029867</v>
       </c>
       <c r="I610">
-        <v>0.5877948624029871</v>
+        <v>0.5877948624029872</v>
       </c>
       <c r="J610">
         <v>1.114754098360656</v>
       </c>
       <c r="K610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:11">
@@ -21792,13 +21792,13 @@
         <v>0.4311252745664489</v>
       </c>
       <c r="I611">
-        <v>0.431125274566449</v>
+        <v>0.4311252745664491</v>
       </c>
       <c r="J611">
         <v>1.114754098360656</v>
       </c>
       <c r="K611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:11">
@@ -21827,13 +21827,13 @@
         <v>-0.4142271880831307</v>
       </c>
       <c r="I612">
-        <v>-0.4142271880831309</v>
+        <v>-0.414227188083131</v>
       </c>
       <c r="J612">
         <v>1.114754098360656</v>
       </c>
       <c r="K612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:11">
@@ -21862,13 +21862,13 @@
         <v>-0.5638861917521446</v>
       </c>
       <c r="I613">
-        <v>-0.5638861917521446</v>
+        <v>-0.5638861917521448</v>
       </c>
       <c r="J613">
         <v>1.114754098360656</v>
       </c>
       <c r="K613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:11">
@@ -21897,13 +21897,13 @@
         <v>-0.5210202699509464</v>
       </c>
       <c r="I614">
-        <v>-0.5210202699509465</v>
+        <v>-0.5210202699509466</v>
       </c>
       <c r="J614">
         <v>2.295081967213115</v>
       </c>
       <c r="K614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:11">
@@ -21932,13 +21932,13 @@
         <v>0.7797466811255114</v>
       </c>
       <c r="I615">
-        <v>0.779746681125512</v>
+        <v>0.7797466811255123</v>
       </c>
       <c r="J615">
         <v>2.295081967213115</v>
       </c>
       <c r="K615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:11">
@@ -21973,7 +21973,7 @@
         <v>2.295081967213115</v>
       </c>
       <c r="K616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:11">
@@ -22002,13 +22002,13 @@
         <v>1.247266211875526</v>
       </c>
       <c r="I617">
-        <v>1.247266211875526</v>
+        <v>1.247266211875527</v>
       </c>
       <c r="J617">
         <v>2.295081967213115</v>
       </c>
       <c r="K617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:11">
@@ -22037,13 +22037,13 @@
         <v>0.8576929498177381</v>
       </c>
       <c r="I618">
-        <v>0.8576929498177382</v>
+        <v>0.8576929498177384</v>
       </c>
       <c r="J618">
         <v>-0.02185792349726776</v>
       </c>
       <c r="K618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:11">
@@ -22078,7 +22078,7 @@
         <v>-0.02185792349726776</v>
       </c>
       <c r="K619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:11">
@@ -22113,7 +22113,7 @@
         <v>-0.02185792349726776</v>
       </c>
       <c r="K620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:11">
@@ -22148,7 +22148,7 @@
         <v>-0.02185792349726776</v>
       </c>
       <c r="K621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:11">
@@ -22177,13 +22177,13 @@
         <v>-0.5596833400903283</v>
       </c>
       <c r="I622">
-        <v>-0.5596833400903283</v>
+        <v>-0.5596833400903284</v>
       </c>
       <c r="J622">
         <v>0.2622950819672131</v>
       </c>
       <c r="K622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:11">
@@ -22218,7 +22218,7 @@
         <v>0.2622950819672131</v>
       </c>
       <c r="K623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:11">
@@ -22247,13 +22247,13 @@
         <v>-0.04168301211318907</v>
       </c>
       <c r="I624">
-        <v>-0.04168301211318911</v>
+        <v>-0.04168301211318912</v>
       </c>
       <c r="J624">
         <v>0.2622950819672131</v>
       </c>
       <c r="K624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:11">
@@ -22282,13 +22282,13 @@
         <v>-0.4905212824739127</v>
       </c>
       <c r="I625">
-        <v>-0.4905212824739127</v>
+        <v>-0.4905212824739128</v>
       </c>
       <c r="J625">
         <v>0.2622950819672131</v>
       </c>
       <c r="K625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:11">
@@ -22323,7 +22323,7 @@
         <v>-0.2076502732240437</v>
       </c>
       <c r="K626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:11">
@@ -22358,7 +22358,7 @@
         <v>-0.2076502732240437</v>
       </c>
       <c r="K627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:11">
@@ -22387,13 +22387,13 @@
         <v>-0.4788405820939112</v>
       </c>
       <c r="I628">
-        <v>-0.4788405820939114</v>
+        <v>-0.4788405820939116</v>
       </c>
       <c r="J628">
         <v>-0.2076502732240437</v>
       </c>
       <c r="K628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:11">
@@ -22422,13 +22422,13 @@
         <v>-0.5135163527335406</v>
       </c>
       <c r="I629">
-        <v>-0.5135163527335408</v>
+        <v>-0.5135163527335409</v>
       </c>
       <c r="J629">
         <v>-0.2076502732240437</v>
       </c>
       <c r="K629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:11">
@@ -22457,13 +22457,13 @@
         <v>-0.4563447748552904</v>
       </c>
       <c r="I630">
-        <v>-0.4563447748552906</v>
+        <v>-0.4563447748552907</v>
       </c>
       <c r="J630">
         <v>0</v>
       </c>
       <c r="K630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:11">
@@ -22492,13 +22492,13 @@
         <v>-0.3914748376762861</v>
       </c>
       <c r="I631">
-        <v>-0.3914748376762862</v>
+        <v>-0.3914748376762863</v>
       </c>
       <c r="J631">
         <v>0</v>
       </c>
       <c r="K631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:11">
@@ -22527,13 +22527,13 @@
         <v>0.5437002149142037</v>
       </c>
       <c r="I632">
-        <v>0.5437002149142039</v>
+        <v>0.5437002149142041</v>
       </c>
       <c r="J632">
         <v>0</v>
       </c>
       <c r="K632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:11">
@@ -22568,7 +22568,7 @@
         <v>0</v>
       </c>
       <c r="K633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:11">
@@ -22597,13 +22597,13 @@
         <v>0.3624989784470029</v>
       </c>
       <c r="I634">
-        <v>0.3624989784470026</v>
+        <v>0.3624989784470027</v>
       </c>
       <c r="J634">
         <v>0.0546448087431694</v>
       </c>
       <c r="K634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:11">
@@ -22632,13 +22632,13 @@
         <v>-0.5232666122732059</v>
       </c>
       <c r="I635">
-        <v>-0.5232666122732061</v>
+        <v>-0.5232666122732063</v>
       </c>
       <c r="J635">
         <v>0.0546448087431694</v>
       </c>
       <c r="K635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:11">
@@ -22667,13 +22667,13 @@
         <v>-0.5163660474152036</v>
       </c>
       <c r="I636">
-        <v>-0.5163660474152038</v>
+        <v>-0.5163660474152039</v>
       </c>
       <c r="J636">
         <v>0.0546448087431694</v>
       </c>
       <c r="K636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:11">
@@ -22702,13 +22702,13 @@
         <v>0.1153326525530588</v>
       </c>
       <c r="I637">
-        <v>0.1153326525530587</v>
+        <v>0.1153326525530588</v>
       </c>
       <c r="J637">
         <v>0.0546448087431694</v>
       </c>
       <c r="K637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:11">
@@ -22737,13 +22737,13 @@
         <v>-0.4751243205743713</v>
       </c>
       <c r="I638">
-        <v>-0.4751243205743715</v>
+        <v>-0.4751243205743716</v>
       </c>
       <c r="J638">
         <v>-0.2841530054644809</v>
       </c>
       <c r="K638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:11">
@@ -22778,7 +22778,7 @@
         <v>-0.2841530054644809</v>
       </c>
       <c r="K639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:11">
@@ -22807,13 +22807,13 @@
         <v>-0.4298370169055684</v>
       </c>
       <c r="I640">
-        <v>-0.4298370169055685</v>
+        <v>-0.4298370169055686</v>
       </c>
       <c r="J640">
         <v>-0.2841530054644809</v>
       </c>
       <c r="K640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:11">
@@ -22842,13 +22842,13 @@
         <v>0.6975906951005904</v>
       </c>
       <c r="I641">
-        <v>0.6975906951005902</v>
+        <v>0.6975906951005904</v>
       </c>
       <c r="J641">
         <v>-0.2841530054644809</v>
       </c>
       <c r="K641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
